--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A419AB-57E8-4ED8-BC1E-F9B336F07ACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD18EFFA-00F4-4465-838F-20FE46331EE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>门派</t>
   </si>
   <si>
-    <t>功夫</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
   </si>
   <si>
     <t>Clan</t>
-  </si>
-  <si>
-    <t>Kongfu</t>
   </si>
   <si>
     <t>Gaibang</t>
@@ -353,6 +347,14 @@
   </si>
   <si>
     <t>AnimationName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>KongfuName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>功夫名称</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -599,6 +601,48 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -607,48 +651,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -956,7 +958,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -980,380 +982,380 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>101</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>54</v>
+      <c r="B5" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>102</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>56</v>
+      <c r="B6" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>103</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>55</v>
+      <c r="B7" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>104</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>53</v>
+      <c r="B8" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>201</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>67</v>
+      <c r="B9" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>202</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>68</v>
+      <c r="B10" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>203</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>69</v>
+      <c r="B11" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>204</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>70</v>
+      <c r="B12" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>301</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>57</v>
+      <c r="B13" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>302</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>58</v>
+      <c r="B14" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>303</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>59</v>
+      <c r="B15" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>304</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>60</v>
+      <c r="B16" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>401</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>61</v>
+      <c r="B17" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>402</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>62</v>
+      <c r="B18" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>403</v>
       </c>
-      <c r="B19" s="23" t="s">
-        <v>66</v>
+      <c r="B19" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>501</v>
       </c>
-      <c r="B20" s="23" t="s">
-        <v>63</v>
+      <c r="B20" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>502</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>64</v>
+      <c r="B21" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>503</v>
       </c>
-      <c r="B22" s="23" t="s">
-        <v>65</v>
+      <c r="B22" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>601</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>71</v>
+      <c r="B23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>602</v>
       </c>
-      <c r="B24" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="23" t="s">
+      <c r="B24" s="7" t="s">
         <v>71</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>603</v>
       </c>
-      <c r="B25" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>71</v>
+      <c r="B25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>701</v>
       </c>
-      <c r="B26" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="23" t="s">
+      <c r="B26" s="7" t="s">
         <v>74</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>702</v>
       </c>
-      <c r="B27" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>74</v>
+      <c r="B27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>703</v>
       </c>
-      <c r="B28" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>74</v>
+      <c r="B28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>704</v>
       </c>
-      <c r="B29" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>74</v>
+      <c r="B29" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>801</v>
       </c>
-      <c r="B30" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>84</v>
+      <c r="B30" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>802</v>
       </c>
-      <c r="B31" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>84</v>
+      <c r="B31" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>803</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>804</v>
       </c>
-      <c r="B33" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>84</v>
+      <c r="B33" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1362,7 +1364,7 @@
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1382,293 +1384,299 @@
   <sheetData>
     <row r="3" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="22"/>
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="7" t="s">
+    </row>
+    <row r="4" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
-        <v>24</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="G4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="H4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="I4" s="16"/>
+      <c r="J4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="12" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="5" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="3">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="15"/>
+        <v>30</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="3">
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="15"/>
+        <v>32</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="3">
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="15"/>
+        <v>34</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="3">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="15"/>
+        <v>36</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="3">
         <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="12" spans="2:15" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+    </row>
+    <row r="13" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-    </row>
-    <row r="13" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
     </row>
     <row r="14" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
     </row>
     <row r="15" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
+        <v>34</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
     </row>
     <row r="16" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
     </row>
     <row r="17" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L13:O17"/>
     <mergeCell ref="G15:K15"/>
     <mergeCell ref="G16:K16"/>
     <mergeCell ref="G17:K17"/>
@@ -1679,12 +1687,6 @@
     <mergeCell ref="G4:G9"/>
     <mergeCell ref="J4:J9"/>
     <mergeCell ref="H4:I9"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L13:O17"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5DBFAC-21C6-4DD7-906C-C89B6DD33670}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD18EFFA-00F4-4465-838F-20FE46331EE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -22,96 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>ian.yin</author>
-  </authors>
-  <commentList>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{5147B4F9-7B09-45B7-8A1E-A720837AED3C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ian.yin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-丐帮弟子1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{2F08FFFC-EA8B-414E-BDF4-CC4F06239852}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ian.yin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-丐帮弟子2</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{DA17F772-F269-41E4-89B8-F161208A711A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ian.yin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-丐帮弟子3</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="87">
   <si>
     <t>ID</t>
   </si>
@@ -155,60 +69,208 @@
     <t>Shaolin</t>
   </si>
   <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>第1位</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>第2-3位</t>
+  </si>
+  <si>
+    <t>第4-5位</t>
+  </si>
+  <si>
+    <t>第6-7位</t>
+  </si>
+  <si>
+    <t>第8-11位</t>
+  </si>
+  <si>
+    <t>第12位</t>
+  </si>
+  <si>
+    <t>装备</t>
+  </si>
+  <si>
+    <t>通用或多个英雄</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>装备部位
+01=武器;03=头饰;05=肩甲;07=上装;09=下装;11=鞋子;13=项链;15=耳环;17=手镯;19=戒指</t>
+  </si>
+  <si>
+    <t>装备品质
+01=绿色;03=蓝色;05=紫色;07=金色;09=橙色;11=红色</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+编号0001-9999</t>
+  </si>
+  <si>
+    <t>物品等级档位
+1=最低等级；2=次低等级；3=平均等级；4=次高等级；5=最高等级</t>
+  </si>
+  <si>
+    <t>文森特</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>凯瑟琳</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>弓箭手</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>牧师</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>刺客</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>第4-8位:道具编号</t>
+  </si>
+  <si>
+    <t>第9-10位:子分类辨识</t>
+  </si>
+  <si>
+    <t>第11-12位:品质辨识</t>
+  </si>
+  <si>
+    <t>道具</t>
+  </si>
+  <si>
+    <t>消耗品</t>
+  </si>
+  <si>
+    <t>道具编号00001-99999</t>
+  </si>
+  <si>
+    <t>01=经验增加;02=生命回复</t>
+  </si>
+  <si>
+    <t>道具品质
+00=白色;01=绿色;
+02=蓝色;03=紫色;
+04=金色;05=橙色;
+06=红色</t>
+  </si>
+  <si>
+    <t>宝箱</t>
+  </si>
+  <si>
+    <t>装备材料</t>
+  </si>
+  <si>
+    <t>数值类</t>
+  </si>
+  <si>
+    <t>非数值类</t>
+  </si>
+  <si>
+    <r>
+      <t>丐帮弟子1|丐帮弟子2|丐帮弟子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>乔帮主</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>醉丐苏花子</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>长老洪七</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>张真人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>脏道人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>一仙道长</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>武当弟子1|武当弟子2|武当弟子3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>绝绝师太</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>独臂女冠</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>丘不君</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>山不羊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>华山弟子1|华山弟子2|华山弟子3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>峨眉弟子1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>玄空方丈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>火头僧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>扫地僧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>少林弟子1|少林弟子2|少林弟子3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -225,123 +287,75 @@
       </rPr>
       <t>udu</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>五毒圣君</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>红药</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Mojiao</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>五毒弟子1|五毒弟子2|五毒弟子3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>明教主</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>日轮法王</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>月轮法王</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>魔教弟子1|魔教弟子2|魔教弟子3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>逍遥子</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>仙童</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>玄女</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>逍遥弟子1|逍遥弟子2|逍遥弟子3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Xiaoyao</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>动画名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AnimationName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>KongfuName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>功夫名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>丐帮弟子左老黑|丐帮弟子袁大楚|丐帮弟子刘大开|丐帮弟子汤老头|丐帮弟子鲁有手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>丐帮弟子何流儿|丐帮弟子王小江|丐帮弟子李狗儿|丐帮弟子张小六|丐帮弟子郑哑儿</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>丐帮弟子韩友谅|丐帮弟子刘友直|丐帮弟子孙多闻|丐帮弟子杨火龙|丐帮弟子梁齐一</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>少林弟子悟真|少林弟子悟缘|少林弟子悟心|少林弟子悟一|少林弟子悟觉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>少林弟子圆智|少林弟子圆普|少林弟子圆广|少林弟子圆静|少林弟子圆海</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>少林弟子玄明|少林弟子玄正|少林弟子玄济|少林弟子玄朗|少林弟子玄恒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wudang</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>武当弟子徐希真|武当弟子任希武|武当弟子罗希宝|武当弟子沈希剑|武当弟子方希峰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>武当弟子石希灵|武当弟子邵希平|武当弟子王希静|武当弟子郭希明|武当弟子卢希英</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>武当弟子龚微海|武当弟子严微鑫|武当弟子夏微正|武当弟子林微光|武当弟子陶微东</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>峨眉弟子清虚|峨眉弟子清照|峨眉弟子清迦|峨眉弟子清慧|峨眉弟子清净</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>华山弟子1|华山弟子1|华山弟子1|华山弟子1|华山弟子1|</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -355,6 +369,21 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -379,23 +408,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -408,8 +422,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -432,20 +452,205 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,492 +953,755 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26:C30"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="75.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="29" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>43</v>
+      <c r="D4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="5">
         <v>101</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="5">
         <v>102</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="5">
         <v>103</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="5">
         <v>104</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>105</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
+      <c r="A9" s="5">
+        <v>201</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>106</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
+      <c r="A10" s="5">
+        <v>202</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>201</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="A11" s="5">
+        <v>203</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>202</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="A12" s="5">
+        <v>204</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>203</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
+      <c r="A13" s="5">
+        <v>301</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>204</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
+      <c r="A14" s="5">
+        <v>302</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>205</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
+      <c r="A15" s="5">
+        <v>303</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>206</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
+      <c r="A16" s="5">
+        <v>304</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>301</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>10</v>
+      <c r="A17" s="5">
+        <v>401</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>302</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>52</v>
+      <c r="A18" s="5">
+        <v>402</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>303</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>10</v>
+      <c r="A19" s="5">
+        <v>403</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>10</v>
+      <c r="A20" s="5">
+        <v>501</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>10</v>
+      <c r="A21" s="5">
+        <v>502</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>304</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>10</v>
+      <c r="A22" s="5">
+        <v>503</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>401</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>11</v>
+      <c r="A23" s="5">
+        <v>601</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>402</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>11</v>
+      <c r="A24" s="5">
+        <v>602</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>403</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>11</v>
+      <c r="A25" s="5">
+        <v>603</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>501</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>12</v>
+      <c r="A26" s="5">
+        <v>701</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>502</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>12</v>
+      <c r="A27" s="5">
+        <v>702</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>12</v>
+      <c r="A28" s="5">
+        <v>703</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="2" t="s">
-        <v>12</v>
+      <c r="A29" s="5">
+        <v>704</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>503</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>12</v>
+      <c r="A30" s="5">
+        <v>801</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>601</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>28</v>
+      <c r="A31" s="5">
+        <v>802</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>602</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>28</v>
+      <c r="A32" s="5">
+        <v>803</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>603</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>701</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>702</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>703</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>704</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>801</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>802</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>803</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="A33" s="5">
         <v>804</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>41</v>
+      <c r="B33" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C18">
     <sortCondition ref="A5"/>
   </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B3:O17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="6" max="10" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="22"/>
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="12" spans="2:15" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+    </row>
+    <row r="13" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="9"/>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L13:O17"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="F4:F9"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="H4:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB8E67D-73E6-40CD-84E2-D320CFE8088F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8F24EC-2A73-4CB6-A658-150207BB1E08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3672" yWindow="540" windowWidth="16284" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -376,18 +376,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>倭寇1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>倭寇2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>倭寇3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Zhongli</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -401,6 +389,17 @@
   </si>
   <si>
     <t>山贼喽啰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>倭寇花屋小三郎|倭寇坂东汉城|倭寇酒冢朱吉|倭寇野村耕二|倭寇冈田小次郎</t>
+  </si>
+  <si>
+    <t>倭寇佐佐木以藏|倭寇宫本新兵卫|倭寇河上半次郎|倭寇田中彦斋|倭寇田中武藏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>倭寇猿飞半藏|倭寇服部佐助|</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -812,8 +811,8 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1372,10 +1371,10 @@
         <v>9901</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1383,10 +1382,10 @@
         <v>9902</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1394,10 +1393,10 @@
         <v>9903</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1405,10 +1404,10 @@
         <v>9904</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1416,10 +1415,10 @@
         <v>9905</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1427,10 +1426,10 @@
         <v>9906</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1438,10 +1437,10 @@
         <v>9907</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8F24EC-2A73-4CB6-A658-150207BB1E08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22A5ED7-CD8E-4216-BDC2-DCAADEB705EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3672" yWindow="540" windowWidth="16284" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -252,154 +252,154 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>玄女</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xiaoyao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimationName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KongfuName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>功夫名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丐帮弟子左老黑|丐帮弟子袁大楚|丐帮弟子刘大开|丐帮弟子汤老头|丐帮弟子鲁有手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丐帮弟子何流儿|丐帮弟子王小江|丐帮弟子李狗儿|丐帮弟子张小六|丐帮弟子郑哑儿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丐帮弟子韩友谅|丐帮弟子刘友直|丐帮弟子孙多闻|丐帮弟子杨火龙|丐帮弟子梁齐一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>少林弟子悟真|少林弟子悟缘|少林弟子悟心|少林弟子悟一|少林弟子悟觉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>少林弟子圆智|少林弟子圆普|少林弟子圆广|少林弟子圆静|少林弟子圆海</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>少林弟子玄明|少林弟子玄正|少林弟子玄济|少林弟子玄朗|少林弟子玄恒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wudang</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武当弟子徐希真|武当弟子任希武|武当弟子罗希宝|武当弟子沈希剑|武当弟子方希峰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武当弟子石希灵|武当弟子邵希平|武当弟子王希静|武当弟子郭希明|武当弟子卢希英</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武当弟子龚微海|武当弟子严微鑫|武当弟子夏微正|武当弟子林微光|武当弟子陶微东</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>峨眉弟子清虚|峨眉弟子清照|峨眉弟子清迦|峨眉弟子清慧|峨眉弟子清净</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huashan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>华山弟子于大通|华山弟子曹大有|华山弟子陈大冲|华山弟子曾大莲|华山弟子姚大诚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>华山弟子田光崇|华山弟子应光和|华山弟子谢光德|华山弟子佘光正|华山弟子黄光仁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>华山弟子宋光养|华山弟子马光贤|华山弟子孔光纯|华山弟子叶光敬|华山弟子乔光升</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔教弟子风怜|魔教弟子宝音|魔教弟子诺敏|魔教弟子托娅|魔教弟子莎娜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔教弟子哲别|魔教弟子牧仁|魔教弟子伯颜|魔教弟子那钦|魔教弟子托雷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔教弟子华黎|魔教弟子博术|魔教弟子赤罕|魔教弟子呼兰|魔教弟子速温</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>逍遥弟子叶星河|逍遥弟子欧阳春秋|逍遥弟子姜青衣|逍遥弟子韦幻真|逍遥弟子赵翠羽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>逍遥弟子高轩辕|逍遥弟子齐惊鸿|逍遥弟子祝游龙|逍遥弟子柏玄鹤|逍遥弟子苏白夔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>逍遥弟子朱厌|逍遥弟子帝江|逍遥弟子白泽|逍遥弟子毕方|逍遥弟子穷奇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五毒弟子蝎心|五毒弟子蟾鸣|五毒弟子蛇影|五毒弟子千足|五毒弟子牵丝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五毒弟子彩凤|五毒弟子珊瑚|五毒弟子孔雀|五毒弟子珍珠|五毒弟子琥珀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五毒弟子罗刹|五毒弟子夜叉|五毒弟子修罗|五毒弟子迦楼|五毒弟子摩侯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhongli</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>座山雕|云中雁|金钱豹|双头蛇|林中虎</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺客草上飞|刺客小旋风|刺客鼓上蚤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>山贼喽啰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>仙童</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄女</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xiaoyao</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>动画名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimationName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KongfuName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>功夫名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>丐帮弟子左老黑|丐帮弟子袁大楚|丐帮弟子刘大开|丐帮弟子汤老头|丐帮弟子鲁有手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>丐帮弟子何流儿|丐帮弟子王小江|丐帮弟子李狗儿|丐帮弟子张小六|丐帮弟子郑哑儿</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>丐帮弟子韩友谅|丐帮弟子刘友直|丐帮弟子孙多闻|丐帮弟子杨火龙|丐帮弟子梁齐一</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>少林弟子悟真|少林弟子悟缘|少林弟子悟心|少林弟子悟一|少林弟子悟觉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>少林弟子圆智|少林弟子圆普|少林弟子圆广|少林弟子圆静|少林弟子圆海</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>少林弟子玄明|少林弟子玄正|少林弟子玄济|少林弟子玄朗|少林弟子玄恒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wudang</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>武当弟子徐希真|武当弟子任希武|武当弟子罗希宝|武当弟子沈希剑|武当弟子方希峰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>武当弟子石希灵|武当弟子邵希平|武当弟子王希静|武当弟子郭希明|武当弟子卢希英</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>武当弟子龚微海|武当弟子严微鑫|武当弟子夏微正|武当弟子林微光|武当弟子陶微东</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>峨眉弟子清虚|峨眉弟子清照|峨眉弟子清迦|峨眉弟子清慧|峨眉弟子清净</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Huashan</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>华山弟子于大通|华山弟子曹大有|华山弟子陈大冲|华山弟子曾大莲|华山弟子姚大诚</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>华山弟子田光崇|华山弟子应光和|华山弟子谢光德|华山弟子佘光正|华山弟子黄光仁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>华山弟子宋光养|华山弟子马光贤|华山弟子孔光纯|华山弟子叶光敬|华山弟子乔光升</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔教弟子风怜|魔教弟子宝音|魔教弟子诺敏|魔教弟子托娅|魔教弟子莎娜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔教弟子哲别|魔教弟子牧仁|魔教弟子伯颜|魔教弟子那钦|魔教弟子托雷</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔教弟子华黎|魔教弟子博术|魔教弟子赤罕|魔教弟子呼兰|魔教弟子速温</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>逍遥弟子叶星河|逍遥弟子欧阳春秋|逍遥弟子姜青衣|逍遥弟子韦幻真|逍遥弟子赵翠羽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>逍遥弟子高轩辕|逍遥弟子齐惊鸿|逍遥弟子祝游龙|逍遥弟子柏玄鹤|逍遥弟子苏白夔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>逍遥弟子朱厌|逍遥弟子帝江|逍遥弟子白泽|逍遥弟子毕方|逍遥弟子穷奇</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>五毒弟子蝎心|五毒弟子蟾鸣|五毒弟子蛇影|五毒弟子千足|五毒弟子牵丝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>五毒弟子彩凤|五毒弟子珊瑚|五毒弟子孔雀|五毒弟子珍珠|五毒弟子琥珀</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>五毒弟子罗刹|五毒弟子夜叉|五毒弟子修罗|五毒弟子迦楼|五毒弟子摩侯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhongli</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>座山雕|云中雁|金钱豹|双头蛇|林中虎</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>刺客草上飞|刺客小旋风|刺客鼓上蚤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>山贼喽啰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>倭寇花屋小三郎|倭寇坂东汉城|倭寇酒冢朱吉|倭寇野村耕二|倭寇冈田小次郎</t>
-  </si>
-  <si>
-    <t>倭寇佐佐木以藏|倭寇宫本新兵卫|倭寇河上半次郎|倭寇田中彦斋|倭寇田中武藏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>倭寇猿飞半藏|倭寇服部佐助|</t>
+  </si>
+  <si>
+    <t>倭寇花屋|倭寇坂东|倭寇朱吉|倭寇耕二|倭寇小次郎</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>倭寇以藏|倭寇新兵卫|倭寇半次郎|倭寇彦斋|倭寇武藏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>倭寇半藏|倭寇佐助|倭寇一郎|倭寇小五郎|倭寇龙马</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -811,8 +811,8 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
+      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -836,10 +836,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
@@ -887,10 +887,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -931,7 +931,7 @@
         <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -942,7 +942,7 @@
         <v>105</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -953,7 +953,7 @@
         <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -997,7 +997,7 @@
         <v>204</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
@@ -1008,7 +1008,7 @@
         <v>205</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
@@ -1019,7 +1019,7 @@
         <v>206</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
@@ -1044,7 +1044,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1063,7 +1063,7 @@
         <v>304</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>10</v>
@@ -1074,7 +1074,7 @@
         <v>305</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>306</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>10</v>
@@ -1118,7 +1118,7 @@
         <v>403</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>11</v>
@@ -1132,7 +1132,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1151,7 +1151,7 @@
         <v>503</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
@@ -1162,7 +1162,7 @@
         <v>504</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
@@ -1173,7 +1173,7 @@
         <v>505</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
@@ -1206,7 +1206,7 @@
         <v>603</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>27</v>
@@ -1217,7 +1217,7 @@
         <v>604</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>27</v>
@@ -1228,7 +1228,7 @@
         <v>605</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>27</v>
@@ -1272,7 +1272,7 @@
         <v>704</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>30</v>
@@ -1283,7 +1283,7 @@
         <v>705</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>30</v>
@@ -1294,7 +1294,7 @@
         <v>706</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>30</v>
@@ -1308,7 +1308,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1316,10 +1316,10 @@
         <v>802</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1327,10 +1327,10 @@
         <v>803</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1338,10 +1338,10 @@
         <v>804</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1349,10 +1349,10 @@
         <v>805</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1360,10 +1360,10 @@
         <v>806</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1371,10 +1371,10 @@
         <v>9901</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1382,10 +1382,10 @@
         <v>9902</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1393,10 +1393,10 @@
         <v>9903</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1404,10 +1404,10 @@
         <v>9904</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1418,7 +1418,7 @@
         <v>72</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1429,7 +1429,7 @@
         <v>70</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1440,7 +1440,7 @@
         <v>71</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB8E67D-73E6-40CD-84E2-D320CFE8088F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22A5ED7-CD8E-4216-BDC2-DCAADEB705EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -252,155 +252,154 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>玄女</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xiaoyao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimationName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KongfuName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>功夫名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丐帮弟子左老黑|丐帮弟子袁大楚|丐帮弟子刘大开|丐帮弟子汤老头|丐帮弟子鲁有手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丐帮弟子何流儿|丐帮弟子王小江|丐帮弟子李狗儿|丐帮弟子张小六|丐帮弟子郑哑儿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丐帮弟子韩友谅|丐帮弟子刘友直|丐帮弟子孙多闻|丐帮弟子杨火龙|丐帮弟子梁齐一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>少林弟子悟真|少林弟子悟缘|少林弟子悟心|少林弟子悟一|少林弟子悟觉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>少林弟子圆智|少林弟子圆普|少林弟子圆广|少林弟子圆静|少林弟子圆海</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>少林弟子玄明|少林弟子玄正|少林弟子玄济|少林弟子玄朗|少林弟子玄恒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wudang</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武当弟子徐希真|武当弟子任希武|武当弟子罗希宝|武当弟子沈希剑|武当弟子方希峰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武当弟子石希灵|武当弟子邵希平|武当弟子王希静|武当弟子郭希明|武当弟子卢希英</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武当弟子龚微海|武当弟子严微鑫|武当弟子夏微正|武当弟子林微光|武当弟子陶微东</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>峨眉弟子清虚|峨眉弟子清照|峨眉弟子清迦|峨眉弟子清慧|峨眉弟子清净</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huashan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>华山弟子于大通|华山弟子曹大有|华山弟子陈大冲|华山弟子曾大莲|华山弟子姚大诚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>华山弟子田光崇|华山弟子应光和|华山弟子谢光德|华山弟子佘光正|华山弟子黄光仁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>华山弟子宋光养|华山弟子马光贤|华山弟子孔光纯|华山弟子叶光敬|华山弟子乔光升</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔教弟子风怜|魔教弟子宝音|魔教弟子诺敏|魔教弟子托娅|魔教弟子莎娜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔教弟子哲别|魔教弟子牧仁|魔教弟子伯颜|魔教弟子那钦|魔教弟子托雷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔教弟子华黎|魔教弟子博术|魔教弟子赤罕|魔教弟子呼兰|魔教弟子速温</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>逍遥弟子叶星河|逍遥弟子欧阳春秋|逍遥弟子姜青衣|逍遥弟子韦幻真|逍遥弟子赵翠羽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>逍遥弟子高轩辕|逍遥弟子齐惊鸿|逍遥弟子祝游龙|逍遥弟子柏玄鹤|逍遥弟子苏白夔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>逍遥弟子朱厌|逍遥弟子帝江|逍遥弟子白泽|逍遥弟子毕方|逍遥弟子穷奇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五毒弟子蝎心|五毒弟子蟾鸣|五毒弟子蛇影|五毒弟子千足|五毒弟子牵丝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五毒弟子彩凤|五毒弟子珊瑚|五毒弟子孔雀|五毒弟子珍珠|五毒弟子琥珀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五毒弟子罗刹|五毒弟子夜叉|五毒弟子修罗|五毒弟子迦楼|五毒弟子摩侯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhongli</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>座山雕|云中雁|金钱豹|双头蛇|林中虎</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺客草上飞|刺客小旋风|刺客鼓上蚤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>山贼喽啰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>仙童</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄女</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xiaoyao</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>动画名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimationName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KongfuName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>功夫名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>丐帮弟子左老黑|丐帮弟子袁大楚|丐帮弟子刘大开|丐帮弟子汤老头|丐帮弟子鲁有手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>丐帮弟子何流儿|丐帮弟子王小江|丐帮弟子李狗儿|丐帮弟子张小六|丐帮弟子郑哑儿</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>丐帮弟子韩友谅|丐帮弟子刘友直|丐帮弟子孙多闻|丐帮弟子杨火龙|丐帮弟子梁齐一</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>少林弟子悟真|少林弟子悟缘|少林弟子悟心|少林弟子悟一|少林弟子悟觉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>少林弟子圆智|少林弟子圆普|少林弟子圆广|少林弟子圆静|少林弟子圆海</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>少林弟子玄明|少林弟子玄正|少林弟子玄济|少林弟子玄朗|少林弟子玄恒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wudang</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>武当弟子徐希真|武当弟子任希武|武当弟子罗希宝|武当弟子沈希剑|武当弟子方希峰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>武当弟子石希灵|武当弟子邵希平|武当弟子王希静|武当弟子郭希明|武当弟子卢希英</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>武当弟子龚微海|武当弟子严微鑫|武当弟子夏微正|武当弟子林微光|武当弟子陶微东</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>峨眉弟子清虚|峨眉弟子清照|峨眉弟子清迦|峨眉弟子清慧|峨眉弟子清净</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Huashan</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>华山弟子于大通|华山弟子曹大有|华山弟子陈大冲|华山弟子曾大莲|华山弟子姚大诚</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>华山弟子田光崇|华山弟子应光和|华山弟子谢光德|华山弟子佘光正|华山弟子黄光仁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>华山弟子宋光养|华山弟子马光贤|华山弟子孔光纯|华山弟子叶光敬|华山弟子乔光升</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔教弟子风怜|魔教弟子宝音|魔教弟子诺敏|魔教弟子托娅|魔教弟子莎娜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔教弟子哲别|魔教弟子牧仁|魔教弟子伯颜|魔教弟子那钦|魔教弟子托雷</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔教弟子华黎|魔教弟子博术|魔教弟子赤罕|魔教弟子呼兰|魔教弟子速温</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>逍遥弟子叶星河|逍遥弟子欧阳春秋|逍遥弟子姜青衣|逍遥弟子韦幻真|逍遥弟子赵翠羽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>逍遥弟子高轩辕|逍遥弟子齐惊鸿|逍遥弟子祝游龙|逍遥弟子柏玄鹤|逍遥弟子苏白夔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>逍遥弟子朱厌|逍遥弟子帝江|逍遥弟子白泽|逍遥弟子毕方|逍遥弟子穷奇</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>五毒弟子蝎心|五毒弟子蟾鸣|五毒弟子蛇影|五毒弟子千足|五毒弟子牵丝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>五毒弟子彩凤|五毒弟子珊瑚|五毒弟子孔雀|五毒弟子珍珠|五毒弟子琥珀</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>五毒弟子罗刹|五毒弟子夜叉|五毒弟子修罗|五毒弟子迦楼|五毒弟子摩侯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>倭寇1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>倭寇2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>倭寇3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhongli</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>座山雕|云中雁|金钱豹|双头蛇|林中虎</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>刺客草上飞|刺客小旋风|刺客鼓上蚤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>山贼喽啰</t>
+  </si>
+  <si>
+    <t>倭寇花屋|倭寇坂东|倭寇朱吉|倭寇耕二|倭寇小次郎</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>倭寇以藏|倭寇新兵卫|倭寇半次郎|倭寇彦斋|倭寇武藏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>倭寇半藏|倭寇佐助|倭寇一郎|倭寇小五郎|倭寇龙马</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -812,8 +811,8 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -837,10 +836,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
@@ -888,10 +887,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -932,7 +931,7 @@
         <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -943,7 +942,7 @@
         <v>105</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -954,7 +953,7 @@
         <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -998,7 +997,7 @@
         <v>204</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
@@ -1009,7 +1008,7 @@
         <v>205</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
@@ -1020,7 +1019,7 @@
         <v>206</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
@@ -1045,7 +1044,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1064,7 +1063,7 @@
         <v>304</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>10</v>
@@ -1075,7 +1074,7 @@
         <v>305</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>10</v>
@@ -1086,7 +1085,7 @@
         <v>306</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>10</v>
@@ -1119,7 +1118,7 @@
         <v>403</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>11</v>
@@ -1133,7 +1132,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1152,7 +1151,7 @@
         <v>503</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
@@ -1163,7 +1162,7 @@
         <v>504</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
@@ -1174,7 +1173,7 @@
         <v>505</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
@@ -1207,7 +1206,7 @@
         <v>603</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>27</v>
@@ -1218,7 +1217,7 @@
         <v>604</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>27</v>
@@ -1229,7 +1228,7 @@
         <v>605</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>27</v>
@@ -1273,7 +1272,7 @@
         <v>704</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>30</v>
@@ -1284,7 +1283,7 @@
         <v>705</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>30</v>
@@ -1295,7 +1294,7 @@
         <v>706</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>30</v>
@@ -1309,7 +1308,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1317,10 +1316,10 @@
         <v>802</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1328,10 +1327,10 @@
         <v>803</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1339,10 +1338,10 @@
         <v>804</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1350,10 +1349,10 @@
         <v>805</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1361,10 +1360,10 @@
         <v>806</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1372,10 +1371,10 @@
         <v>9901</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1383,10 +1382,10 @@
         <v>9902</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1394,10 +1393,10 @@
         <v>9903</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1405,10 +1404,10 @@
         <v>9904</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1416,10 +1415,10 @@
         <v>9905</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1427,10 +1426,10 @@
         <v>9906</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1438,10 +1437,10 @@
         <v>9907</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22A5ED7-CD8E-4216-BDC2-DCAADEB705EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="26960" windowHeight="11780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,20 +17,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ian.yin</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{5147B4F9-7B09-45B7-8A1E-A720837AED3C}">
+    <comment ref="A8" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ian.yin:</t>
@@ -44,9 +36,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -54,15 +44,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{2F08FFFC-EA8B-414E-BDF4-CC4F06239852}">
+    <comment ref="A9" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ian.yin:</t>
@@ -70,9 +58,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -80,15 +66,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{DA17F772-F269-41E4-89B8-F161208A711A}">
+    <comment ref="A10" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ian.yin:</t>
@@ -96,9 +80,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -111,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="74">
   <si>
     <t>ID</t>
   </si>
@@ -122,6 +104,15 @@
     <t>门派</t>
   </si>
   <si>
+    <t>功夫名称</t>
+  </si>
+  <si>
+    <t>动画名称</t>
+  </si>
+  <si>
+    <t>Prefab名称</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -140,74 +131,119 @@
     <t>Clan</t>
   </si>
   <si>
+    <t>KongfuName</t>
+  </si>
+  <si>
+    <t>AnimationName</t>
+  </si>
+  <si>
+    <t>PrefabName</t>
+  </si>
+  <si>
+    <t>乔帮主</t>
+  </si>
+  <si>
     <t>Gaibang</t>
   </si>
   <si>
+    <t>长老洪七</t>
+  </si>
+  <si>
+    <t>醉丐苏花子</t>
+  </si>
+  <si>
+    <t>丐帮弟子何流儿|丐帮弟子王小江|丐帮弟子李狗儿|丐帮弟子张小六|丐帮弟子郑哑儿</t>
+  </si>
+  <si>
+    <t>丐帮弟子左老黑|丐帮弟子袁大楚|丐帮弟子刘大开|丐帮弟子汤老头|丐帮弟子鲁有手</t>
+  </si>
+  <si>
+    <t>丐帮弟子韩友谅|丐帮弟子刘友直|丐帮弟子孙多闻|丐帮弟子杨火龙|丐帮弟子梁齐一</t>
+  </si>
+  <si>
+    <t>玄空方丈</t>
+  </si>
+  <si>
+    <t>Shaolin</t>
+  </si>
+  <si>
+    <t>火头僧</t>
+  </si>
+  <si>
+    <t>扫地僧</t>
+  </si>
+  <si>
+    <t>少林弟子悟真|少林弟子悟缘|少林弟子悟心|少林弟子悟一|少林弟子悟觉</t>
+  </si>
+  <si>
+    <t>少林弟子圆智|少林弟子圆普|少林弟子圆广|少林弟子圆静|少林弟子圆海</t>
+  </si>
+  <si>
+    <t>少林弟子玄明|少林弟子玄正|少林弟子玄济|少林弟子玄朗|少林弟子玄恒</t>
+  </si>
+  <si>
+    <t>张真人</t>
+  </si>
+  <si>
     <t>Wudang</t>
   </si>
   <si>
+    <t>脏道人</t>
+  </si>
+  <si>
+    <t>一仙道长</t>
+  </si>
+  <si>
+    <t>武当弟子徐希真|武当弟子任希武|武当弟子罗希宝|武当弟子沈希剑|武当弟子方希峰</t>
+  </si>
+  <si>
+    <t>武当弟子石希灵|武当弟子邵希平|武当弟子王希静|武当弟子郭希明|武当弟子卢希英</t>
+  </si>
+  <si>
+    <t>武当弟子龚微海|武当弟子严微鑫|武当弟子夏微正|武当弟子林微光|武当弟子陶微东</t>
+  </si>
+  <si>
+    <t>绝绝师太</t>
+  </si>
+  <si>
     <t>Emei</t>
   </si>
   <si>
+    <t>独臂女冠</t>
+  </si>
+  <si>
+    <t>峨眉弟子清虚|峨眉弟子清照|峨眉弟子清迦|峨眉弟子清慧|峨眉弟子清净</t>
+  </si>
+  <si>
+    <t>丘不君</t>
+  </si>
+  <si>
     <t>Huashan</t>
   </si>
   <si>
-    <t>Shaolin</t>
-  </si>
-  <si>
-    <t>乔帮主</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>醉丐苏花子</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>长老洪七</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张真人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>脏道人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>一仙道长</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝绝师太</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>独臂女冠</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>丘不君</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>山不羊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄空方丈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>火头僧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫地僧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>华山弟子于大通|华山弟子曹大有|华山弟子陈大冲|华山弟子曾大莲|华山弟子姚大诚</t>
+  </si>
+  <si>
+    <t>华山弟子田光崇|华山弟子应光和|华山弟子谢光德|华山弟子佘光正|华山弟子黄光仁</t>
+  </si>
+  <si>
+    <t>华山弟子宋光养|华山弟子马光贤|华山弟子孔光纯|华山弟子叶光敬|华山弟子乔光升</t>
+  </si>
+  <si>
+    <t>五毒圣君</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>W</t>
     </r>
     <r>
@@ -215,199 +251,102 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>udu</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>五毒圣君</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>红药</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy1</t>
+  </si>
+  <si>
+    <t>五毒弟子彩凤|五毒弟子珊瑚|五毒弟子孔雀|五毒弟子珍珠|五毒弟子琥珀</t>
+  </si>
+  <si>
+    <t>五毒弟子罗刹|五毒弟子夜叉|五毒弟子修罗|五毒弟子迦楼|五毒弟子摩侯</t>
+  </si>
+  <si>
+    <t>五毒弟子蝎心|五毒弟子蟾鸣|五毒弟子蛇影|五毒弟子千足|五毒弟子牵丝</t>
+  </si>
+  <si>
+    <t>明教主</t>
   </si>
   <si>
     <t>Mojiao</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>明教主</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>日轮法王</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>月轮法王</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔教弟子风怜|魔教弟子宝音|魔教弟子诺敏|魔教弟子托娅|魔教弟子莎娜</t>
+  </si>
+  <si>
+    <t>魔教弟子哲别|魔教弟子牧仁|魔教弟子伯颜|魔教弟子那钦|魔教弟子托雷</t>
+  </si>
+  <si>
+    <t>魔教弟子华黎|魔教弟子博术|魔教弟子赤罕|魔教弟子呼兰|魔教弟子速温</t>
   </si>
   <si>
     <t>逍遥子</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xiaoyao</t>
+  </si>
+  <si>
+    <t>仙童</t>
   </si>
   <si>
     <t>玄女</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xiaoyao</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>动画名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimationName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KongfuName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>功夫名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>丐帮弟子左老黑|丐帮弟子袁大楚|丐帮弟子刘大开|丐帮弟子汤老头|丐帮弟子鲁有手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>丐帮弟子何流儿|丐帮弟子王小江|丐帮弟子李狗儿|丐帮弟子张小六|丐帮弟子郑哑儿</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>丐帮弟子韩友谅|丐帮弟子刘友直|丐帮弟子孙多闻|丐帮弟子杨火龙|丐帮弟子梁齐一</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>少林弟子悟真|少林弟子悟缘|少林弟子悟心|少林弟子悟一|少林弟子悟觉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>少林弟子圆智|少林弟子圆普|少林弟子圆广|少林弟子圆静|少林弟子圆海</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>少林弟子玄明|少林弟子玄正|少林弟子玄济|少林弟子玄朗|少林弟子玄恒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wudang</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>武当弟子徐希真|武当弟子任希武|武当弟子罗希宝|武当弟子沈希剑|武当弟子方希峰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>武当弟子石希灵|武当弟子邵希平|武当弟子王希静|武当弟子郭希明|武当弟子卢希英</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>武当弟子龚微海|武当弟子严微鑫|武当弟子夏微正|武当弟子林微光|武当弟子陶微东</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>峨眉弟子清虚|峨眉弟子清照|峨眉弟子清迦|峨眉弟子清慧|峨眉弟子清净</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Huashan</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>华山弟子于大通|华山弟子曹大有|华山弟子陈大冲|华山弟子曾大莲|华山弟子姚大诚</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>华山弟子田光崇|华山弟子应光和|华山弟子谢光德|华山弟子佘光正|华山弟子黄光仁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>华山弟子宋光养|华山弟子马光贤|华山弟子孔光纯|华山弟子叶光敬|华山弟子乔光升</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔教弟子风怜|魔教弟子宝音|魔教弟子诺敏|魔教弟子托娅|魔教弟子莎娜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔教弟子哲别|魔教弟子牧仁|魔教弟子伯颜|魔教弟子那钦|魔教弟子托雷</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔教弟子华黎|魔教弟子博术|魔教弟子赤罕|魔教弟子呼兰|魔教弟子速温</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>逍遥弟子高轩辕|逍遥弟子齐惊鸿|逍遥弟子祝游龙|逍遥弟子柏玄鹤|逍遥弟子苏白夔</t>
   </si>
   <si>
     <t>逍遥弟子叶星河|逍遥弟子欧阳春秋|逍遥弟子姜青衣|逍遥弟子韦幻真|逍遥弟子赵翠羽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>逍遥弟子高轩辕|逍遥弟子齐惊鸿|逍遥弟子祝游龙|逍遥弟子柏玄鹤|逍遥弟子苏白夔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>逍遥弟子朱厌|逍遥弟子帝江|逍遥弟子白泽|逍遥弟子毕方|逍遥弟子穷奇</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>五毒弟子蝎心|五毒弟子蟾鸣|五毒弟子蛇影|五毒弟子千足|五毒弟子牵丝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>五毒弟子彩凤|五毒弟子珊瑚|五毒弟子孔雀|五毒弟子珍珠|五毒弟子琥珀</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>五毒弟子罗刹|五毒弟子夜叉|五毒弟子修罗|五毒弟子迦楼|五毒弟子摩侯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>座山雕|云中雁|金钱豹|双头蛇|林中虎</t>
   </si>
   <si>
     <t>Zhongli</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>座山雕|云中雁|金钱豹|双头蛇|林中虎</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>山贼喽啰</t>
   </si>
   <si>
     <t>刺客草上飞|刺客小旋风|刺客鼓上蚤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>山贼喽啰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>仙童</t>
+  </si>
+  <si>
+    <t>倭寇半藏|倭寇佐助|倭寇一郎|倭寇小五郎|倭寇龙马</t>
   </si>
   <si>
     <t>倭寇花屋|倭寇坂东|倭寇朱吉|倭寇耕二|倭寇小次郎</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>倭寇以藏|倭寇新兵卫|倭寇半次郎|倭寇彦斋|倭寇武藏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>倭寇半藏|倭寇佐助|倭寇一郎|倭寇小五郎|倭寇龙马</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,41 +359,172 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,12 +533,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -491,9 +747,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -507,17 +1005,61 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -802,30 +1344,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32:F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="84.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9.89090909090909" style="2" customWidth="1"/>
+    <col min="2" max="2" width="84.1090909090909" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.8909090909091" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.4454545454545" style="2" customWidth="1"/>
+    <col min="5" max="6" width="16" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,620 +1379,701 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>101</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>103</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>105</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>201</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>202</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>203</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>204</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>205</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>206</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>301</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>302</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>303</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>304</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>305</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>306</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>401</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>402</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>403</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="2">
         <v>501</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>502</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="2">
         <v>503</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="2">
         <v>504</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="2">
         <v>505</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="2">
         <v>601</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>602</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <v>603</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <v>604</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <v>605</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <v>701</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <v>702</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
         <v>703</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
         <v>704</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="2">
         <v>705</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="2">
         <v>706</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="2">
         <v>801</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="2">
         <v>802</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="2">
         <v>803</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="2">
         <v>804</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="2">
         <v>805</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="2">
         <v>806</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F47" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="2">
         <v>9901</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="2">
         <v>9902</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F49" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="2">
         <v>9903</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F50" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="2">
         <v>9904</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="2">
         <v>9905</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="2">
         <v>9906</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="2">
         <v>9907</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C24">
+  <sortState ref="A3:C24">
     <sortCondition ref="A5"/>
   </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30CC3D6-C2B9-4C60-8D08-D17C9BE8E114}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="26960" windowHeight="11780"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ian.yin</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0">
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -44,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -66,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -93,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="96">
   <si>
     <t>ID</t>
   </si>
@@ -335,18 +341,203 @@
   <si>
     <t>倭寇以藏|倭寇新兵卫|倭寇半次郎|倭寇彦斋|倭寇武藏</t>
   </si>
+  <si>
+    <t>打狗棒法;钓鱼棍法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dagoubangfa;diaoyugunfa</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗汉伏魔拳;千手如来掌</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>太极剑法;太极拳</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>青莲女神剑;白蟒鞭</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>华山剑法;御剑术</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>五毒神鞭;千蛛万毒手</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔刀;魔刀一闪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>波动拳;夜落星河剑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>luohanfumoquan;qianshourulaizhang</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aijijianfa;taijiquan</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ingliannvshenjian;baimangbian</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uashanjianfa;yujianshu</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>udushenbian;qianzhuwandushou</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>odao;modaoyishan</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>odongquan;yeluoxinghejian</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ianglongzhang;qinlonggong</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ulaishenzhang;chanzhanggong</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>降龙掌;擒龙功</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>如来神掌;禅杖功</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>太祖长拳</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>taizuchangquan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,150 +560,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -523,8 +570,22 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,198 +594,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -747,253 +622,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1004,62 +637,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1344,31 +936,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32:F54"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.89090909090909" style="2" customWidth="1"/>
-    <col min="2" max="2" width="84.1090909090909" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.8909090909091" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.4454545454545" style="2" customWidth="1"/>
-    <col min="5" max="6" width="16" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="84.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1388,7 +980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1408,7 +1000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1428,7 +1020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1448,7 +1040,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>101</v>
       </c>
@@ -1458,8 +1050,14 @@
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>102</v>
       </c>
@@ -1469,8 +1067,14 @@
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>103</v>
       </c>
@@ -1480,8 +1084,14 @@
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>104</v>
       </c>
@@ -1491,8 +1101,14 @@
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>105</v>
       </c>
@@ -1502,8 +1118,14 @@
       <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>106</v>
       </c>
@@ -1513,8 +1135,14 @@
       <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>201</v>
       </c>
@@ -1524,8 +1152,14 @@
       <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>202</v>
       </c>
@@ -1535,8 +1169,14 @@
       <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>203</v>
       </c>
@@ -1546,8 +1186,14 @@
       <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>204</v>
       </c>
@@ -1557,8 +1203,14 @@
       <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>205</v>
       </c>
@@ -1568,8 +1220,14 @@
       <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>206</v>
       </c>
@@ -1579,8 +1237,14 @@
       <c r="C16" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>301</v>
       </c>
@@ -1590,8 +1254,14 @@
       <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>302</v>
       </c>
@@ -1601,8 +1271,14 @@
       <c r="C18" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>303</v>
       </c>
@@ -1612,8 +1288,14 @@
       <c r="C19" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>304</v>
       </c>
@@ -1623,8 +1305,14 @@
       <c r="C20" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>305</v>
       </c>
@@ -1634,8 +1322,14 @@
       <c r="C21" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>306</v>
       </c>
@@ -1645,8 +1339,14 @@
       <c r="C22" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>401</v>
       </c>
@@ -1656,8 +1356,14 @@
       <c r="C23" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>402</v>
       </c>
@@ -1667,8 +1373,14 @@
       <c r="C24" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>403</v>
       </c>
@@ -1678,8 +1390,14 @@
       <c r="C25" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>501</v>
       </c>
@@ -1689,8 +1407,14 @@
       <c r="C26" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>502</v>
       </c>
@@ -1700,8 +1424,14 @@
       <c r="C27" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>503</v>
       </c>
@@ -1711,8 +1441,14 @@
       <c r="C28" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>504</v>
       </c>
@@ -1722,8 +1458,14 @@
       <c r="C29" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>505</v>
       </c>
@@ -1733,8 +1475,14 @@
       <c r="C30" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>601</v>
       </c>
@@ -1744,8 +1492,14 @@
       <c r="C31" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="D31" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>602</v>
       </c>
@@ -1755,11 +1509,17 @@
       <c r="C32" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="D32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="F32" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>603</v>
       </c>
@@ -1769,11 +1529,17 @@
       <c r="C33" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="D33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="F33" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>604</v>
       </c>
@@ -1783,11 +1549,17 @@
       <c r="C34" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="D34" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="F34" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>605</v>
       </c>
@@ -1797,11 +1569,17 @@
       <c r="C35" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="D35" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="F35" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>701</v>
       </c>
@@ -1811,11 +1589,17 @@
       <c r="C36" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="D36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="F36" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>702</v>
       </c>
@@ -1825,11 +1609,17 @@
       <c r="C37" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="D37" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="F37" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>703</v>
       </c>
@@ -1839,11 +1629,17 @@
       <c r="C38" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="D38" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="F38" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>704</v>
       </c>
@@ -1853,11 +1649,17 @@
       <c r="C39" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="D39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="F39" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>705</v>
       </c>
@@ -1867,11 +1669,17 @@
       <c r="C40" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="D40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="F40" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>706</v>
       </c>
@@ -1881,11 +1689,17 @@
       <c r="C41" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="D41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="F41" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>801</v>
       </c>
@@ -1895,11 +1709,17 @@
       <c r="C42" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="D42" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="F42" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>802</v>
       </c>
@@ -1909,11 +1729,17 @@
       <c r="C43" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="D43" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="F43" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>803</v>
       </c>
@@ -1923,11 +1749,17 @@
       <c r="C44" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="D44" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="F44" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>804</v>
       </c>
@@ -1937,11 +1769,17 @@
       <c r="C45" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="D45" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="F45" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>805</v>
       </c>
@@ -1951,11 +1789,17 @@
       <c r="C46" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="D46" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="F46" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>806</v>
       </c>
@@ -1965,11 +1809,17 @@
       <c r="C47" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="D47" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="F47" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>9901</v>
       </c>
@@ -1979,11 +1829,17 @@
       <c r="C48" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="D48" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="F48" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>9902</v>
       </c>
@@ -1993,11 +1849,17 @@
       <c r="C49" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="D49" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="F49" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>9903</v>
       </c>
@@ -2007,11 +1869,17 @@
       <c r="C50" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="D50" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="F50" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>9904</v>
       </c>
@@ -2021,11 +1889,17 @@
       <c r="C51" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="D51" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="F51" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>9905</v>
       </c>
@@ -2035,11 +1909,17 @@
       <c r="C52" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="D52" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="F52" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>9906</v>
       </c>
@@ -2049,11 +1929,17 @@
       <c r="C53" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="D53" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="F53" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>9907</v>
       </c>
@@ -2063,17 +1949,23 @@
       <c r="C54" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="D54" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="F54" s="2" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:C24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C24">
     <sortCondition ref="A5"/>
   </sortState>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30CC3D6-C2B9-4C60-8D08-D17C9BE8E114}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +17,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ian.yin</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="A10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="98">
   <si>
     <t>ID</t>
   </si>
@@ -152,15 +146,52 @@
     <t>Gaibang</t>
   </si>
   <si>
+    <t>降龙掌;擒龙功</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ianglongzhang;qinlonggong</t>
+    </r>
+  </si>
+  <si>
     <t>长老洪七</t>
   </si>
   <si>
+    <t>太祖长拳</t>
+  </si>
+  <si>
+    <t>taizuchangquan</t>
+  </si>
+  <si>
     <t>醉丐苏花子</t>
   </si>
   <si>
     <t>丐帮弟子何流儿|丐帮弟子王小江|丐帮弟子李狗儿|丐帮弟子张小六|丐帮弟子郑哑儿</t>
   </si>
   <si>
+    <t>打狗棒法;钓鱼棍法</t>
+  </si>
+  <si>
+    <t>dagoubangfa;diaoyugunfa</t>
+  </si>
+  <si>
     <t>丐帮弟子左老黑|丐帮弟子袁大楚|丐帮弟子刘大开|丐帮弟子汤老头|丐帮弟子鲁有手</t>
   </si>
   <si>
@@ -173,6 +204,31 @@
     <t>Shaolin</t>
   </si>
   <si>
+    <t>如来神掌;禅杖功</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ulaishenzhang;chanzhanggong</t>
+    </r>
+  </si>
+  <si>
     <t>火头僧</t>
   </si>
   <si>
@@ -182,6 +238,12 @@
     <t>少林弟子悟真|少林弟子悟缘|少林弟子悟心|少林弟子悟一|少林弟子悟觉</t>
   </si>
   <si>
+    <t>罗汉伏魔拳;千手如来掌</t>
+  </si>
+  <si>
+    <t>luohanfumoquan;qianshourulaizhang</t>
+  </si>
+  <si>
     <t>少林弟子圆智|少林弟子圆普|少林弟子圆广|少林弟子圆静|少林弟子圆海</t>
   </si>
   <si>
@@ -194,6 +256,31 @@
     <t>Wudang</t>
   </si>
   <si>
+    <t>太极剑法;太极拳</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aijijianfa;taijiquan</t>
+    </r>
+  </si>
+  <si>
     <t>脏道人</t>
   </si>
   <si>
@@ -221,6 +308,31 @@
     <t>峨眉弟子清虚|峨眉弟子清照|峨眉弟子清迦|峨眉弟子清慧|峨眉弟子清净</t>
   </si>
   <si>
+    <t>青莲女神剑;白蟒鞭</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ingliannvshenjian;baimangbian</t>
+    </r>
+  </si>
+  <si>
     <t>丘不君</t>
   </si>
   <si>
@@ -231,6 +343,31 @@
   </si>
   <si>
     <t>华山弟子于大通|华山弟子曹大有|华山弟子陈大冲|华山弟子曾大莲|华山弟子姚大诚</t>
+  </si>
+  <si>
+    <t>华山剑法;御剑术</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uashanjianfa;yujianshu</t>
+    </r>
   </si>
   <si>
     <t>华山弟子田光崇|华山弟子应光和|华山弟子谢光德|华山弟子佘光正|华山弟子黄光仁</t>
@@ -273,167 +410,17 @@
     <t>五毒弟子彩凤|五毒弟子珊瑚|五毒弟子孔雀|五毒弟子珍珠|五毒弟子琥珀</t>
   </si>
   <si>
-    <t>五毒弟子罗刹|五毒弟子夜叉|五毒弟子修罗|五毒弟子迦楼|五毒弟子摩侯</t>
-  </si>
-  <si>
-    <t>五毒弟子蝎心|五毒弟子蟾鸣|五毒弟子蛇影|五毒弟子千足|五毒弟子牵丝</t>
-  </si>
-  <si>
-    <t>明教主</t>
-  </si>
-  <si>
-    <t>Mojiao</t>
-  </si>
-  <si>
-    <t>日轮法王</t>
-  </si>
-  <si>
-    <t>月轮法王</t>
-  </si>
-  <si>
-    <t>魔教弟子风怜|魔教弟子宝音|魔教弟子诺敏|魔教弟子托娅|魔教弟子莎娜</t>
-  </si>
-  <si>
-    <t>魔教弟子哲别|魔教弟子牧仁|魔教弟子伯颜|魔教弟子那钦|魔教弟子托雷</t>
-  </si>
-  <si>
-    <t>魔教弟子华黎|魔教弟子博术|魔教弟子赤罕|魔教弟子呼兰|魔教弟子速温</t>
-  </si>
-  <si>
-    <t>逍遥子</t>
-  </si>
-  <si>
-    <t>Xiaoyao</t>
-  </si>
-  <si>
-    <t>仙童</t>
-  </si>
-  <si>
-    <t>玄女</t>
-  </si>
-  <si>
-    <t>逍遥弟子高轩辕|逍遥弟子齐惊鸿|逍遥弟子祝游龙|逍遥弟子柏玄鹤|逍遥弟子苏白夔</t>
-  </si>
-  <si>
-    <t>逍遥弟子叶星河|逍遥弟子欧阳春秋|逍遥弟子姜青衣|逍遥弟子韦幻真|逍遥弟子赵翠羽</t>
-  </si>
-  <si>
-    <t>逍遥弟子朱厌|逍遥弟子帝江|逍遥弟子白泽|逍遥弟子毕方|逍遥弟子穷奇</t>
-  </si>
-  <si>
-    <t>座山雕|云中雁|金钱豹|双头蛇|林中虎</t>
-  </si>
-  <si>
-    <t>Zhongli</t>
-  </si>
-  <si>
-    <t>山贼喽啰</t>
-  </si>
-  <si>
-    <t>刺客草上飞|刺客小旋风|刺客鼓上蚤</t>
-  </si>
-  <si>
-    <t>倭寇半藏|倭寇佐助|倭寇一郎|倭寇小五郎|倭寇龙马</t>
-  </si>
-  <si>
-    <t>倭寇花屋|倭寇坂东|倭寇朱吉|倭寇耕二|倭寇小次郎</t>
-  </si>
-  <si>
-    <t>倭寇以藏|倭寇新兵卫|倭寇半次郎|倭寇彦斋|倭寇武藏</t>
-  </si>
-  <si>
-    <t>打狗棒法;钓鱼棍法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>dagoubangfa;diaoyugunfa</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗汉伏魔拳;千手如来掌</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>太极剑法;太极拳</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>青莲女神剑;白蟒鞭</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>华山剑法;御剑术</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>五毒神鞭;千蛛万毒手</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔刀;魔刀一闪</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>波动拳;夜落星河剑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>luohanfumoquan;qianshourulaizhang</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>aijijianfa;taijiquan</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>q</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ingliannvshenjian;baimangbian</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uashanjianfa;yujianshu</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>w</t>
     </r>
     <r>
@@ -441,16 +428,45 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>udushenbian;qianzhuwandushou</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>五毒弟子罗刹|五毒弟子夜叉|五毒弟子修罗|五毒弟子迦楼|五毒弟子摩侯</t>
+  </si>
+  <si>
+    <t>五毒弟子蝎心|五毒弟子蟾鸣|五毒弟子蛇影|五毒弟子千足|五毒弟子牵丝</t>
+  </si>
+  <si>
+    <t>明教主</t>
+  </si>
+  <si>
+    <t>Mojiao</t>
+  </si>
+  <si>
+    <t>日轮法王</t>
+  </si>
+  <si>
+    <t>月轮法王</t>
+  </si>
+  <si>
+    <t>魔教弟子风怜|魔教弟子宝音|魔教弟子诺敏|魔教弟子托娅|魔教弟子莎娜</t>
+  </si>
+  <si>
+    <t>魔刀;魔刀一闪</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>m</t>
     </r>
     <r>
@@ -458,16 +474,45 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>odao;modaoyishan</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔教弟子哲别|魔教弟子牧仁|魔教弟子伯颜|魔教弟子那钦|魔教弟子托雷</t>
+  </si>
+  <si>
+    <t>魔教弟子华黎|魔教弟子博术|魔教弟子赤罕|魔教弟子呼兰|魔教弟子速温</t>
+  </si>
+  <si>
+    <t>逍遥子</t>
+  </si>
+  <si>
+    <t>Xiaoyao</t>
+  </si>
+  <si>
+    <t>仙童</t>
+  </si>
+  <si>
+    <t>玄女</t>
+  </si>
+  <si>
+    <t>逍遥弟子高轩辕|逍遥弟子齐惊鸿|逍遥弟子祝游龙|逍遥弟子柏玄鹤|逍遥弟子苏白夔</t>
+  </si>
+  <si>
+    <t>波动拳;夜落星河剑</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>b</t>
     </r>
     <r>
@@ -475,69 +520,57 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>odongquan;yeluoxinghejian</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ianglongzhang;qinlonggong</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ulaishenzhang;chanzhanggong</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>降龙掌;擒龙功</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>如来神掌;禅杖功</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>太祖长拳</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>taizuchangquan</t>
+  </si>
+  <si>
+    <t>逍遥弟子叶星河|逍遥弟子欧阳春秋|逍遥弟子姜青衣|逍遥弟子韦幻真|逍遥弟子赵翠羽</t>
+  </si>
+  <si>
+    <t>逍遥弟子朱厌|逍遥弟子帝江|逍遥弟子白泽|逍遥弟子毕方|逍遥弟子穷奇</t>
+  </si>
+  <si>
+    <t>座山雕|云中雁|金钱豹|双头蛇|林中虎</t>
+  </si>
+  <si>
+    <t>Shanzei</t>
+  </si>
+  <si>
+    <t>山贼喽啰</t>
+  </si>
+  <si>
+    <t>刺客草上飞|刺客小旋风|刺客鼓上蚤</t>
+  </si>
+  <si>
+    <t>Cike</t>
+  </si>
+  <si>
+    <t>倭寇半藏|倭寇佐助|倭寇一郎|倭寇小五郎|倭寇龙马</t>
+  </si>
+  <si>
+    <t>Wokou</t>
+  </si>
+  <si>
+    <t>倭寇花屋|倭寇坂东|倭寇朱吉|倭寇耕二|倭寇小次郎</t>
+  </si>
+  <si>
+    <t>倭寇以藏|倭寇新兵卫|倭寇半次郎|倭寇彦斋|倭寇武藏</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,10 +593,148 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -571,21 +742,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -594,12 +757,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -622,9 +971,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -634,24 +1225,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -936,31 +1571,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="84.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="84.1083333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.8833333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.2166666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.8833333333333" style="2" customWidth="1"/>
     <col min="6" max="6" width="16" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -980,7 +1616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1000,7 +1636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1020,7 +1656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1040,7 +1676,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>101</v>
       </c>
@@ -1051,921 +1687,921 @@
         <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>103</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>105</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>201</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>202</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>203</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>204</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>205</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>206</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>301</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>302</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>303</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>304</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>305</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>306</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>401</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>402</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2">
         <v>403</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>501</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>502</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>503</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>504</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="2">
         <v>505</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>601</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>602</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <v>603</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <v>604</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <v>605</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <v>701</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <v>702</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
         <v>703</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
         <v>704</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="2">
         <v>705</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="2">
         <v>706</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="2">
         <v>801</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="2">
         <v>802</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="2">
         <v>803</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="2">
         <v>804</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="2">
         <v>805</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="2">
         <v>806</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="2">
         <v>9901</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="2">
         <v>9902</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="2">
         <v>9903</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="2">
         <v>9904</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="2">
         <v>9905</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="2">
         <v>9906</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="2">
         <v>9907</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C24">
+  <sortState ref="A3:C24">
     <sortCondition ref="A5"/>
   </sortState>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D401F7-43E4-4F84-902D-88EA15EDA8EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,18 +23,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ian.yin</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0">
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ian.yin:</t>
@@ -37,6 +44,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -44,13 +52,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ian.yin:</t>
@@ -59,6 +68,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -66,13 +76,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ian.yin:</t>
@@ -81,6 +92,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -154,6 +166,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -164,6 +177,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -212,6 +226,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -222,6 +237,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -264,6 +280,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -274,6 +291,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -316,6 +334,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -326,6 +345,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -353,6 +373,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -363,6 +384,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -384,6 +406,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -394,6 +417,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -418,6 +442,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -428,6 +453,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -464,6 +490,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -474,6 +501,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -510,6 +538,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -520,6 +549,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -563,14 +593,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,172 +607,39 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -757,198 +648,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -971,251 +676,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1232,61 +695,17 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1571,32 +990,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection/>
+      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="84.1083333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.8833333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.2166666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="36.8833333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="84.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.88671875" style="2" customWidth="1"/>
     <col min="6" max="6" width="16" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1616,7 +1034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:6">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1636,7 +1054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:6">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1656,7 +1074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:6">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1676,7 +1094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>101</v>
       </c>
@@ -1693,7 +1111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>102</v>
       </c>
@@ -1710,7 +1128,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>103</v>
       </c>
@@ -1727,7 +1145,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>104</v>
       </c>
@@ -1744,7 +1162,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>105</v>
       </c>
@@ -1761,7 +1179,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>106</v>
       </c>
@@ -1778,7 +1196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>201</v>
       </c>
@@ -1795,7 +1213,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>202</v>
       </c>
@@ -1812,7 +1230,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>203</v>
       </c>
@@ -1829,7 +1247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>204</v>
       </c>
@@ -1846,7 +1264,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>205</v>
       </c>
@@ -1863,7 +1281,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>206</v>
       </c>
@@ -1880,7 +1298,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>301</v>
       </c>
@@ -1897,7 +1315,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>302</v>
       </c>
@@ -1914,7 +1332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>303</v>
       </c>
@@ -1931,7 +1349,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>304</v>
       </c>
@@ -1948,7 +1366,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>305</v>
       </c>
@@ -1965,7 +1383,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>306</v>
       </c>
@@ -1982,7 +1400,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>401</v>
       </c>
@@ -1999,7 +1417,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>402</v>
       </c>
@@ -2016,7 +1434,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>403</v>
       </c>
@@ -2033,7 +1451,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>501</v>
       </c>
@@ -2050,7 +1468,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>502</v>
       </c>
@@ -2067,7 +1485,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>503</v>
       </c>
@@ -2084,7 +1502,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>504</v>
       </c>
@@ -2101,7 +1519,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>505</v>
       </c>
@@ -2118,7 +1536,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>601</v>
       </c>
@@ -2135,7 +1553,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>602</v>
       </c>
@@ -2155,7 +1573,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>603</v>
       </c>
@@ -2175,7 +1593,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>604</v>
       </c>
@@ -2195,7 +1613,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>605</v>
       </c>
@@ -2215,7 +1633,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>701</v>
       </c>
@@ -2235,7 +1653,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>702</v>
       </c>
@@ -2255,7 +1673,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>703</v>
       </c>
@@ -2275,7 +1693,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>704</v>
       </c>
@@ -2295,7 +1713,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>705</v>
       </c>
@@ -2315,7 +1733,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>706</v>
       </c>
@@ -2335,7 +1753,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>801</v>
       </c>
@@ -2355,7 +1773,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>802</v>
       </c>
@@ -2375,7 +1793,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>803</v>
       </c>
@@ -2395,7 +1813,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>804</v>
       </c>
@@ -2415,7 +1833,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>805</v>
       </c>
@@ -2435,7 +1853,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>806</v>
       </c>
@@ -2455,7 +1873,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>9901</v>
       </c>
@@ -2475,7 +1893,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>9902</v>
       </c>
@@ -2495,7 +1913,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>9903</v>
       </c>
@@ -2515,7 +1933,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>9904</v>
       </c>
@@ -2535,7 +1953,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>9905</v>
       </c>
@@ -2555,7 +1973,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>9906</v>
       </c>
@@ -2575,7 +1993,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>9907</v>
       </c>
@@ -2596,12 +2014,12 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:C24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C24">
     <sortCondition ref="A5"/>
   </sortState>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D401F7-43E4-4F84-902D-88EA15EDA8EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="29370" windowHeight="11390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,19 +17,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ian.yin</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A8" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ian.yin:</t>
@@ -44,7 +37,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -52,14 +44,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A9" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ian.yin:</t>
@@ -68,7 +59,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -76,14 +66,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="A10" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ian.yin:</t>
@@ -92,7 +81,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -105,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="101">
   <si>
     <t>ID</t>
   </si>
@@ -166,7 +154,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -177,7 +164,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -185,6 +171,9 @@
     </r>
   </si>
   <si>
+    <t>Gaibang1</t>
+  </si>
+  <si>
     <t>长老洪七</t>
   </si>
   <si>
@@ -206,10 +195,19 @@
     <t>dagoubangfa;diaoyugunfa</t>
   </si>
   <si>
+    <t>Shaolin1</t>
+  </si>
+  <si>
     <t>丐帮弟子左老黑|丐帮弟子袁大楚|丐帮弟子刘大开|丐帮弟子汤老头|丐帮弟子鲁有手</t>
   </si>
   <si>
+    <t>Shaolin2</t>
+  </si>
+  <si>
     <t>丐帮弟子韩友谅|丐帮弟子刘友直|丐帮弟子孙多闻|丐帮弟子杨火龙|丐帮弟子梁齐一</t>
+  </si>
+  <si>
+    <t>Shaolin3</t>
   </si>
   <si>
     <t>玄空方丈</t>
@@ -226,7 +224,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -237,7 +234,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -280,7 +276,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -291,7 +286,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -334,7 +328,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -345,7 +338,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -373,7 +365,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -384,7 +375,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -406,7 +396,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -417,7 +406,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -428,9 +416,6 @@
     <t>红药</t>
   </si>
   <si>
-    <t>Enemy1</t>
-  </si>
-  <si>
     <t>五毒弟子彩凤|五毒弟子珊瑚|五毒弟子孔雀|五毒弟子珍珠|五毒弟子琥珀</t>
   </si>
   <si>
@@ -442,7 +427,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -453,7 +437,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -490,7 +473,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -501,7 +483,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -538,7 +519,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -549,7 +529,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -593,8 +572,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,39 +592,172 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -648,12 +766,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -676,9 +980,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -695,17 +1241,61 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -990,31 +1580,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+      <pane ySplit="4" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11:F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="84.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="36.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.89090909090909" style="2" customWidth="1"/>
+    <col min="2" max="2" width="84.1090909090909" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.8909090909091" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.2181818181818" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.8909090909091" style="2" customWidth="1"/>
     <col min="6" max="6" width="16" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1034,7 +1625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,7 +1645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,7 +1665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1094,7 +1685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>101</v>
       </c>
@@ -1110,916 +1701,997 @@
       <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>103</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>105</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>201</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>202</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>203</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>204</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>205</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>206</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>301</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <v>302</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>303</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>304</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="E20" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>305</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>306</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>401</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>402</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>403</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>501</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>502</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>503</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <v>504</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
         <v>505</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <v>601</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>602</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <v>603</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <v>604</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <v>605</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="E35" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <v>701</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <v>702</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
         <v>703</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
         <v>704</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="D39" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="2">
         <v>705</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="2">
         <v>706</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="E41" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="2">
         <v>801</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="2">
         <v>802</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="2">
         <v>803</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="2">
         <v>804</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="D45" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="2">
         <v>805</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="2">
         <v>806</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="E47" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="2">
         <v>9901</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="2">
         <v>9902</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="2">
         <v>9903</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="2">
         <v>9904</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="2">
         <v>9905</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="2">
         <v>9906</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="2">
         <v>9907</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C24">
+  <sortState ref="A3:C24">
     <sortCondition ref="A5"/>
   </sortState>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29370" windowHeight="11390"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -574,12 +574,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -596,13 +596,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -610,29 +603,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,8 +617,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,6 +644,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,7 +666,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,6 +703,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -700,40 +718,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -741,6 +727,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -772,31 +765,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,114 +933,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -923,36 +946,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,6 +974,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -996,13 +1013,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1031,41 +1052,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1084,10 +1077,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1096,137 +1089,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1235,9 +1228,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1589,23 +1579,23 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11:F54"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.89090909090909" style="2" customWidth="1"/>
-    <col min="2" max="2" width="84.1090909090909" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.8909090909091" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.2181818181818" style="2" customWidth="1"/>
-    <col min="5" max="5" width="36.8909090909091" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="79.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1625,7 +1615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1645,7 +1635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1665,7 +1655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1695,10 +1685,10 @@
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1715,7 +1705,7 @@
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1735,7 +1725,7 @@
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1758,7 +1748,7 @@
       <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -1778,7 +1768,7 @@
       <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -1798,7 +1788,7 @@
       <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1815,10 +1805,10 @@
       <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -1835,7 +1825,7 @@
       <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1855,7 +1845,7 @@
       <c r="C13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -1875,10 +1865,10 @@
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -1895,10 +1885,10 @@
       <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -1915,10 +1905,10 @@
       <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -1935,10 +1925,10 @@
       <c r="C17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -1955,7 +1945,7 @@
       <c r="C18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -1975,7 +1965,7 @@
       <c r="C19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1995,10 +1985,10 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -2015,10 +2005,10 @@
       <c r="C21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -2035,10 +2025,10 @@
       <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -2055,7 +2045,7 @@
       <c r="C23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -2075,7 +2065,7 @@
       <c r="C24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -2095,10 +2085,10 @@
       <c r="C25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -2115,7 +2105,7 @@
       <c r="C26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -2135,7 +2125,7 @@
       <c r="C27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -2155,10 +2145,10 @@
       <c r="C28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -2175,10 +2165,10 @@
       <c r="C29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -2195,10 +2185,10 @@
       <c r="C30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
@@ -2215,7 +2205,7 @@
       <c r="C31" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -2235,7 +2225,7 @@
       <c r="C32" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -2255,10 +2245,10 @@
       <c r="C33" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -2275,10 +2265,10 @@
       <c r="C34" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -2295,10 +2285,10 @@
       <c r="C35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F35" s="2" t="s">
@@ -2315,7 +2305,7 @@
       <c r="C36" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -2335,7 +2325,7 @@
       <c r="C37" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -2355,7 +2345,7 @@
       <c r="C38" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -2375,10 +2365,10 @@
       <c r="C39" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="3" t="s">
         <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
@@ -2395,10 +2385,10 @@
       <c r="C40" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="3" t="s">
         <v>80</v>
       </c>
       <c r="F40" s="2" t="s">
@@ -2415,10 +2405,10 @@
       <c r="C41" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="3" t="s">
         <v>80</v>
       </c>
       <c r="F41" s="2" t="s">
@@ -2435,7 +2425,7 @@
       <c r="C42" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E42" s="2" t="s">
@@ -2455,7 +2445,7 @@
       <c r="C43" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -2475,7 +2465,7 @@
       <c r="C44" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -2495,10 +2485,10 @@
       <c r="C45" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F45" s="2" t="s">
@@ -2515,10 +2505,10 @@
       <c r="C46" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F46" s="2" t="s">
@@ -2535,10 +2525,10 @@
       <c r="C47" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F47" s="2" t="s">
@@ -2555,7 +2545,7 @@
       <c r="C48" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E48" s="2" t="s">
@@ -2575,7 +2565,7 @@
       <c r="C49" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -2595,7 +2585,7 @@
       <c r="C50" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -2615,7 +2605,7 @@
       <c r="C51" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -2635,7 +2625,7 @@
       <c r="C52" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E52" s="2" t="s">
@@ -2655,7 +2645,7 @@
       <c r="C53" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E53" s="2" t="s">
@@ -2675,7 +2665,7 @@
       <c r="C54" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E54" s="2" t="s">

--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D401F7-43E4-4F84-902D-88EA15EDA8EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22230" windowHeight="17180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,19 +17,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ian.yin</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A8" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ian.yin:</t>
@@ -44,7 +37,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -52,14 +44,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A9" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ian.yin:</t>
@@ -68,7 +59,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -76,14 +66,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="A10" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ian.yin:</t>
@@ -92,7 +81,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -166,7 +154,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -177,7 +164,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -226,7 +212,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -237,7 +222,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -280,7 +264,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -291,7 +274,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -334,7 +316,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -345,7 +326,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -373,7 +353,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -384,7 +363,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -406,7 +384,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -417,7 +394,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -442,7 +418,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -453,7 +428,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -490,7 +464,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -501,7 +474,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -538,7 +510,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -549,7 +520,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -593,8 +563,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,39 +583,172 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -648,12 +757,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -676,9 +971,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -695,17 +1232,61 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -990,31 +1571,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="84.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="36.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.89090909090909" style="2" customWidth="1"/>
+    <col min="2" max="2" width="84.1090909090909" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.8909090909091" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.2181818181818" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.8909090909091" style="2" customWidth="1"/>
     <col min="6" max="6" width="16" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1034,7 +1616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,7 +1636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,7 +1656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1094,7 +1676,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>101</v>
       </c>
@@ -1111,7 +1693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>102</v>
       </c>
@@ -1128,7 +1710,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>103</v>
       </c>
@@ -1145,7 +1727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>104</v>
       </c>
@@ -1162,7 +1744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>105</v>
       </c>
@@ -1179,7 +1761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>106</v>
       </c>
@@ -1196,7 +1778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>201</v>
       </c>
@@ -1213,7 +1795,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>202</v>
       </c>
@@ -1230,7 +1812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>203</v>
       </c>
@@ -1247,7 +1829,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>204</v>
       </c>
@@ -1264,7 +1846,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>205</v>
       </c>
@@ -1281,7 +1863,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>206</v>
       </c>
@@ -1298,7 +1880,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>301</v>
       </c>
@@ -1315,7 +1897,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>302</v>
       </c>
@@ -1332,7 +1914,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>303</v>
       </c>
@@ -1349,7 +1931,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>304</v>
       </c>
@@ -1366,7 +1948,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>305</v>
       </c>
@@ -1383,7 +1965,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>306</v>
       </c>
@@ -1400,7 +1982,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>401</v>
       </c>
@@ -1417,7 +1999,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>402</v>
       </c>
@@ -1434,7 +2016,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="2">
         <v>403</v>
       </c>
@@ -1451,7 +2033,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>501</v>
       </c>
@@ -1468,7 +2050,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>502</v>
       </c>
@@ -1485,7 +2067,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>503</v>
       </c>
@@ -1502,7 +2084,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>504</v>
       </c>
@@ -1519,7 +2101,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="2">
         <v>505</v>
       </c>
@@ -1536,7 +2118,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>601</v>
       </c>
@@ -1553,7 +2135,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>602</v>
       </c>
@@ -1573,7 +2155,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <v>603</v>
       </c>
@@ -1593,7 +2175,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <v>604</v>
       </c>
@@ -1613,7 +2195,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <v>605</v>
       </c>
@@ -1633,7 +2215,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <v>701</v>
       </c>
@@ -1653,7 +2235,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <v>702</v>
       </c>
@@ -1673,7 +2255,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
         <v>703</v>
       </c>
@@ -1693,7 +2275,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
         <v>704</v>
       </c>
@@ -1713,7 +2295,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="2">
         <v>705</v>
       </c>
@@ -1733,7 +2315,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="2">
         <v>706</v>
       </c>
@@ -1753,7 +2335,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="2">
         <v>801</v>
       </c>
@@ -1773,7 +2355,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="2">
         <v>802</v>
       </c>
@@ -1793,7 +2375,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="2">
         <v>803</v>
       </c>
@@ -1813,7 +2395,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="2">
         <v>804</v>
       </c>
@@ -1833,7 +2415,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="2">
         <v>805</v>
       </c>
@@ -1853,7 +2435,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="2">
         <v>806</v>
       </c>
@@ -1873,7 +2455,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="2">
         <v>9901</v>
       </c>
@@ -1893,7 +2475,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="2">
         <v>9902</v>
       </c>
@@ -1913,7 +2495,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="2">
         <v>9903</v>
       </c>
@@ -1933,7 +2515,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="2">
         <v>9904</v>
       </c>
@@ -1953,7 +2535,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="2">
         <v>9905</v>
       </c>
@@ -1973,7 +2555,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="2">
         <v>9906</v>
       </c>
@@ -1993,7 +2575,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="2">
         <v>9907</v>
       </c>
@@ -2014,12 +2596,12 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C24">
+  <sortState ref="A3:C24">
     <sortCondition ref="A5"/>
   </sortState>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A4765F-16C9-4554-9EB9-40675931EB21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,18 +23,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ian.yin</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0">
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ian.yin:</t>
@@ -37,6 +44,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -44,13 +52,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ian.yin:</t>
@@ -59,6 +68,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -66,13 +76,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ian.yin:</t>
@@ -81,6 +92,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -93,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="102">
   <si>
     <t>ID</t>
   </si>
@@ -154,6 +166,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -164,6 +177,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -224,6 +238,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -234,6 +249,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -276,6 +292,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -286,6 +303,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -328,6 +346,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -338,6 +357,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -365,6 +385,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -375,6 +396,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -396,6 +418,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -406,6 +429,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -427,6 +451,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -437,6 +462,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -473,6 +499,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -483,6 +510,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -519,6 +547,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -529,6 +558,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -568,18 +598,16 @@
   <si>
     <t>倭寇以藏|倭寇新兵卫|倭寇半次郎|倭寇彦斋|倭寇武藏</t>
   </si>
+  <si>
+    <t>taijijianfa;taijizhang</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,165 +620,39 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -759,198 +661,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -973,253 +689,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1230,62 +704,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1570,32 +1003,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="79.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="79.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="11" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1615,7 +1047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:6">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1635,7 +1067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:6">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1655,7 +1087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:6">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1675,7 +1107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>101</v>
       </c>
@@ -1695,7 +1127,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>102</v>
       </c>
@@ -1715,7 +1147,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>103</v>
       </c>
@@ -1735,7 +1167,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>104</v>
       </c>
@@ -1755,7 +1187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>105</v>
       </c>
@@ -1775,7 +1207,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>106</v>
       </c>
@@ -1795,7 +1227,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>201</v>
       </c>
@@ -1815,7 +1247,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>202</v>
       </c>
@@ -1835,7 +1267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>203</v>
       </c>
@@ -1855,7 +1287,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>204</v>
       </c>
@@ -1875,7 +1307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>205</v>
       </c>
@@ -1895,7 +1327,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>206</v>
       </c>
@@ -1915,7 +1347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>301</v>
       </c>
@@ -1935,7 +1367,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>302</v>
       </c>
@@ -1955,7 +1387,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>303</v>
       </c>
@@ -1975,7 +1407,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>304</v>
       </c>
@@ -1988,14 +1420,14 @@
       <c r="D20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>46</v>
+      <c r="E20" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>305</v>
       </c>
@@ -2008,14 +1440,14 @@
       <c r="D21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>46</v>
+      <c r="E21" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>306</v>
       </c>
@@ -2028,14 +1460,14 @@
       <c r="D22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>46</v>
+      <c r="E22" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>401</v>
       </c>
@@ -2055,7 +1487,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>402</v>
       </c>
@@ -2075,7 +1507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>403</v>
       </c>
@@ -2095,7 +1527,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>501</v>
       </c>
@@ -2115,7 +1547,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>502</v>
       </c>
@@ -2135,7 +1567,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>503</v>
       </c>
@@ -2155,7 +1587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>504</v>
       </c>
@@ -2175,7 +1607,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>505</v>
       </c>
@@ -2195,7 +1627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>601</v>
       </c>
@@ -2215,7 +1647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>602</v>
       </c>
@@ -2235,7 +1667,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>603</v>
       </c>
@@ -2255,7 +1687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>604</v>
       </c>
@@ -2275,7 +1707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>605</v>
       </c>
@@ -2295,7 +1727,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>701</v>
       </c>
@@ -2315,7 +1747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>702</v>
       </c>
@@ -2335,7 +1767,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>703</v>
       </c>
@@ -2355,7 +1787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>704</v>
       </c>
@@ -2375,7 +1807,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>705</v>
       </c>
@@ -2395,7 +1827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>706</v>
       </c>
@@ -2415,7 +1847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>801</v>
       </c>
@@ -2435,7 +1867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>802</v>
       </c>
@@ -2455,7 +1887,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>803</v>
       </c>
@@ -2475,7 +1907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>804</v>
       </c>
@@ -2495,7 +1927,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>805</v>
       </c>
@@ -2515,7 +1947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>806</v>
       </c>
@@ -2535,7 +1967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>9901</v>
       </c>
@@ -2555,7 +1987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>9902</v>
       </c>
@@ -2575,7 +2007,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>9903</v>
       </c>
@@ -2595,7 +2027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>9904</v>
       </c>
@@ -2615,7 +2047,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>9905</v>
       </c>
@@ -2635,7 +2067,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>9906</v>
       </c>
@@ -2655,7 +2087,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>9907</v>
       </c>
@@ -2676,12 +2108,12 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:C24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C24">
     <sortCondition ref="A5"/>
   </sortState>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A4765F-16C9-4554-9EB9-40675931EB21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30250" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,19 +17,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ian.yin</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A8" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ian.yin:</t>
@@ -44,7 +37,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -52,14 +44,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A9" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ian.yin:</t>
@@ -68,7 +59,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -76,14 +66,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="A10" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ian.yin:</t>
@@ -92,7 +81,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -105,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="105">
   <si>
     <t>ID</t>
   </si>
@@ -166,7 +154,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -177,7 +164,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -238,7 +224,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -249,7 +234,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -292,7 +276,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -303,7 +286,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -320,6 +302,9 @@
     <t>武当弟子徐希真|武当弟子任希武|武当弟子罗希宝|武当弟子沈希剑|武当弟子方希峰</t>
   </si>
   <si>
+    <t>taijijianfa;taijizhang</t>
+  </si>
+  <si>
     <t>武当弟子石希灵|武当弟子邵希平|武当弟子王希静|武当弟子郭希明|武当弟子卢希英</t>
   </si>
   <si>
@@ -346,7 +331,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -357,7 +341,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -385,7 +368,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -396,7 +378,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -418,7 +399,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -429,7 +409,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -451,7 +430,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -462,7 +440,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -499,7 +476,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -510,7 +486,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -547,7 +522,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -558,7 +532,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -578,9 +551,18 @@
     <t>Shanzei</t>
   </si>
   <si>
+    <t>ShanzeiBoss</t>
+  </si>
+  <si>
     <t>山贼喽啰</t>
   </si>
   <si>
+    <t>Shanzei1</t>
+  </si>
+  <si>
+    <t>Shanzei2</t>
+  </si>
+  <si>
     <t>刺客草上飞|刺客小旋风|刺客鼓上蚤</t>
   </si>
   <si>
@@ -597,17 +579,19 @@
   </si>
   <si>
     <t>倭寇以藏|倭寇新兵卫|倭寇半次郎|倭寇彦斋|倭寇武藏</t>
-  </si>
-  <si>
-    <t>taijijianfa;taijizhang</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,39 +604,172 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -661,12 +778,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -689,9 +992,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -708,17 +1253,61 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1003,31 +1592,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="79.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.33636363636364" style="2" customWidth="1"/>
+    <col min="2" max="2" width="79.8909090909091" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.33636363636364" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.3363636363636" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.1090909090909" style="2" customWidth="1"/>
     <col min="6" max="6" width="11" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1047,7 +1637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1067,7 +1657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,7 +1677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,7 +1697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>101</v>
       </c>
@@ -1127,7 +1717,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>102</v>
       </c>
@@ -1147,7 +1737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>103</v>
       </c>
@@ -1167,7 +1757,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>104</v>
       </c>
@@ -1187,7 +1777,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>105</v>
       </c>
@@ -1207,7 +1797,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>106</v>
       </c>
@@ -1227,7 +1817,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>201</v>
       </c>
@@ -1247,7 +1837,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>202</v>
       </c>
@@ -1267,7 +1857,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>203</v>
       </c>
@@ -1287,7 +1877,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>204</v>
       </c>
@@ -1307,7 +1897,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>205</v>
       </c>
@@ -1327,7 +1917,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>206</v>
       </c>
@@ -1347,7 +1937,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>301</v>
       </c>
@@ -1367,7 +1957,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <v>302</v>
       </c>
@@ -1387,7 +1977,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>303</v>
       </c>
@@ -1407,7 +1997,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>304</v>
       </c>
@@ -1421,18 +2011,18 @@
         <v>45</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>305</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>44</v>
@@ -1441,18 +2031,18 @@
         <v>45</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>306</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>44</v>
@@ -1461,21 +2051,21 @@
         <v>45</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>401</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>21</v>
@@ -1487,15 +2077,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>402</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>21</v>
@@ -1507,35 +2097,35 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>403</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>501</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>21</v>
@@ -1547,15 +2137,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>502</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>21</v>
@@ -1567,75 +2157,75 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>503</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <v>504</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
         <v>505</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <v>601</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>21</v>
@@ -1647,15 +2237,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>602</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>21</v>
@@ -1667,75 +2257,75 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <v>603</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <v>604</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <v>605</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <v>701</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>21</v>
@@ -1747,15 +2337,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <v>702</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>21</v>
@@ -1767,15 +2357,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
         <v>703</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>21</v>
@@ -1787,75 +2377,75 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
         <v>704</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="2">
         <v>705</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="2">
         <v>706</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="2">
         <v>801</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>21</v>
@@ -1867,15 +2457,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="2">
         <v>802</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>21</v>
@@ -1887,15 +2477,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="2">
         <v>803</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>21</v>
@@ -1907,75 +2497,75 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="2">
         <v>804</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="2">
         <v>805</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="2">
         <v>806</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="2">
         <v>9901</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>21</v>
@@ -1984,18 +2574,18 @@
         <v>22</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="2">
         <v>9902</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>21</v>
@@ -2004,18 +2594,18 @@
         <v>22</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="2">
         <v>9903</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>21</v>
@@ -2024,18 +2614,18 @@
         <v>22</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="2">
         <v>9904</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>21</v>
@@ -2047,15 +2637,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="2">
         <v>9905</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>21</v>
@@ -2067,15 +2657,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="2">
         <v>9906</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>21</v>
@@ -2087,15 +2677,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="2">
         <v>9907</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>21</v>
@@ -2108,12 +2698,12 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C24">
+  <sortState ref="A3:C24">
     <sortCondition ref="A5"/>
   </sortState>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="107">
   <si>
     <t>ID</t>
   </si>
@@ -551,10 +551,16 @@
     <t>Shanzei</t>
   </si>
   <si>
+    <t>shanzeiBoss_attack_1;shanzeiBoss_attack_2</t>
+  </si>
+  <si>
     <t>ShanzeiBoss</t>
   </si>
   <si>
     <t>山贼喽啰</t>
+  </si>
+  <si>
+    <t>shanzei_attack_1;shanzei_attack_2</t>
   </si>
   <si>
     <t>Shanzei1</t>
@@ -586,12 +592,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,45 +614,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,7 +628,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -668,13 +659,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,7 +673,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,7 +696,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -713,23 +705,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,6 +726,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -750,9 +741,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -784,25 +783,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,157 +963,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,39 +992,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1045,22 +1011,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1090,16 +1050,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1108,137 +1107,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1247,9 +1246,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1603,7 +1599,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
+      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1612,7 +1608,7 @@
     <col min="2" max="2" width="79.8909090909091" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.33636363636364" style="2" customWidth="1"/>
     <col min="4" max="4" width="22.3363636363636" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37.1090909090909" style="2" customWidth="1"/>
+    <col min="5" max="5" width="50.9090909090909" style="2" customWidth="1"/>
     <col min="6" max="6" width="11" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
@@ -2010,7 +2006,7 @@
       <c r="D20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -2030,7 +2026,7 @@
       <c r="D21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -2050,7 +2046,7 @@
       <c r="D22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -2571,10 +2567,10 @@
         <v>21</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2582,7 +2578,7 @@
         <v>9902</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>94</v>
@@ -2591,10 +2587,10 @@
         <v>21</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2602,7 +2598,7 @@
         <v>9903</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>94</v>
@@ -2611,10 +2607,10 @@
         <v>21</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2622,10 +2618,10 @@
         <v>9904</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>21</v>
@@ -2642,10 +2638,10 @@
         <v>9905</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>21</v>
@@ -2662,10 +2658,10 @@
         <v>9906</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>21</v>
@@ -2682,10 +2678,10 @@
         <v>9907</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>21</v>

--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FC4CAB-808A-46AE-8942-35CE0FA2D3CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="30250" windowHeight="11040"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,23 +18,24 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ian.yin</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0">
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ian.yin:</t>
@@ -37,6 +44,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -44,13 +52,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ian.yin:</t>
@@ -59,6 +68,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -66,13 +76,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ian.yin:</t>
@@ -81,6 +92,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -93,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="121">
   <si>
     <t>ID</t>
   </si>
@@ -154,6 +166,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -164,6 +177,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -224,6 +238,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -234,6 +249,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -276,6 +292,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -286,6 +303,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -331,6 +349,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -341,6 +360,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -368,6 +388,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -378,6 +399,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -399,6 +421,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -409,6 +432,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -430,6 +454,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -440,6 +465,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -476,6 +502,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -486,6 +513,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -522,6 +550,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -532,6 +561,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -586,18 +616,81 @@
   <si>
     <t>倭寇以藏|倭寇新兵卫|倭寇半次郎|倭寇彦斋|倭寇武藏</t>
   </si>
+  <si>
+    <t>熊</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beast</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>野猪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹿</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>山贼攻击1;山贼攻击2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>山大王攻击1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;山大王攻击2</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊攻击</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>野猪攻击</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹿攻击</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇攻击</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼攻击</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,165 +703,39 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -777,198 +744,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -991,253 +772,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1248,62 +787,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1588,32 +1086,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
+      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33636363636364" style="2" customWidth="1"/>
-    <col min="2" max="2" width="79.8909090909091" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.33636363636364" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.3363636363636" style="2" customWidth="1"/>
-    <col min="5" max="5" width="50.9090909090909" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="79.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.88671875" style="2" customWidth="1"/>
     <col min="6" max="6" width="11" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1633,7 +1130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1653,7 +1150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1673,7 +1170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1693,7 +1190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>101</v>
       </c>
@@ -1713,7 +1210,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>102</v>
       </c>
@@ -1733,7 +1230,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>103</v>
       </c>
@@ -1753,7 +1250,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>104</v>
       </c>
@@ -1773,7 +1270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>105</v>
       </c>
@@ -1793,7 +1290,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>106</v>
       </c>
@@ -1813,7 +1310,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>201</v>
       </c>
@@ -1833,7 +1330,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>202</v>
       </c>
@@ -1853,7 +1350,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>203</v>
       </c>
@@ -1873,7 +1370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>204</v>
       </c>
@@ -1893,7 +1390,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>205</v>
       </c>
@@ -1913,7 +1410,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>206</v>
       </c>
@@ -1933,7 +1430,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>301</v>
       </c>
@@ -1953,7 +1450,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>302</v>
       </c>
@@ -1973,7 +1470,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>303</v>
       </c>
@@ -1993,7 +1490,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>304</v>
       </c>
@@ -2013,7 +1510,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>305</v>
       </c>
@@ -2033,7 +1530,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>306</v>
       </c>
@@ -2053,7 +1550,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>401</v>
       </c>
@@ -2073,7 +1570,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>402</v>
       </c>
@@ -2093,7 +1590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>403</v>
       </c>
@@ -2113,7 +1610,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>501</v>
       </c>
@@ -2133,7 +1630,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>502</v>
       </c>
@@ -2153,7 +1650,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>503</v>
       </c>
@@ -2173,7 +1670,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>504</v>
       </c>
@@ -2193,7 +1690,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>505</v>
       </c>
@@ -2213,7 +1710,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>601</v>
       </c>
@@ -2233,7 +1730,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>602</v>
       </c>
@@ -2253,7 +1750,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>603</v>
       </c>
@@ -2273,7 +1770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>604</v>
       </c>
@@ -2293,7 +1790,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>605</v>
       </c>
@@ -2313,7 +1810,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>701</v>
       </c>
@@ -2333,7 +1830,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>702</v>
       </c>
@@ -2353,7 +1850,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>703</v>
       </c>
@@ -2373,7 +1870,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>704</v>
       </c>
@@ -2393,7 +1890,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>705</v>
       </c>
@@ -2413,7 +1910,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>706</v>
       </c>
@@ -2433,7 +1930,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>801</v>
       </c>
@@ -2453,7 +1950,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>802</v>
       </c>
@@ -2473,7 +1970,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>803</v>
       </c>
@@ -2493,7 +1990,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>804</v>
       </c>
@@ -2513,7 +2010,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>805</v>
       </c>
@@ -2533,7 +2030,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>806</v>
       </c>
@@ -2553,153 +2050,253 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
+        <v>9601</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>9602</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>9603</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>9604</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>9605</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>9701</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>9702</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>9703</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>9804</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
         <v>9901</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48" s="3" t="s">
+      <c r="B57" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="2">
+      <c r="E57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
         <v>9902</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" s="3" t="s">
+      <c r="B58" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="2">
+      <c r="E58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
         <v>9903</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="3" t="s">
+      <c r="B59" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="2">
-        <v>9904</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="2">
-        <v>9905</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="2">
-        <v>9906</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="2">
-        <v>9907</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F54" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:C24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C24">
     <sortCondition ref="A5"/>
   </sortState>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FC4CAB-808A-46AE-8942-35CE0FA2D3CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="14080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,24 +12,23 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ian.yin</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A8" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ian.yin:</t>
@@ -44,7 +37,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -52,14 +44,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A9" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ian.yin:</t>
@@ -68,7 +59,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -76,14 +66,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="A10" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ian.yin:</t>
@@ -92,7 +81,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -105,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="132">
   <si>
     <t>ID</t>
   </si>
@@ -166,7 +154,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -177,7 +164,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -185,18 +171,21 @@
     </r>
   </si>
   <si>
+    <t>Qiaofeng</t>
+  </si>
+  <si>
+    <t>长老洪七</t>
+  </si>
+  <si>
+    <t>太祖长拳</t>
+  </si>
+  <si>
+    <t>taizuchangquan</t>
+  </si>
+  <si>
     <t>Gaibang1</t>
   </si>
   <si>
-    <t>长老洪七</t>
-  </si>
-  <si>
-    <t>太祖长拳</t>
-  </si>
-  <si>
-    <t>taizuchangquan</t>
-  </si>
-  <si>
     <t>醉丐苏花子</t>
   </si>
   <si>
@@ -209,19 +198,16 @@
     <t>dagoubangfa;diaoyugunfa</t>
   </si>
   <si>
-    <t>Shaolin1</t>
-  </si>
-  <si>
     <t>丐帮弟子左老黑|丐帮弟子袁大楚|丐帮弟子刘大开|丐帮弟子汤老头|丐帮弟子鲁有手</t>
   </si>
   <si>
-    <t>Shaolin2</t>
+    <t>Gaibang2</t>
   </si>
   <si>
     <t>丐帮弟子韩友谅|丐帮弟子刘友直|丐帮弟子孙多闻|丐帮弟子杨火龙|丐帮弟子梁齐一</t>
   </si>
   <si>
-    <t>Shaolin3</t>
+    <t>Gaibang3</t>
   </si>
   <si>
     <t>玄空方丈</t>
@@ -238,7 +224,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -249,7 +234,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -257,9 +241,15 @@
     </r>
   </si>
   <si>
+    <t>Xuankong</t>
+  </si>
+  <si>
     <t>火头僧</t>
   </si>
   <si>
+    <t>Shaolin1</t>
+  </si>
+  <si>
     <t>扫地僧</t>
   </si>
   <si>
@@ -275,7 +265,13 @@
     <t>少林弟子圆智|少林弟子圆普|少林弟子圆广|少林弟子圆静|少林弟子圆海</t>
   </si>
   <si>
+    <t>Shaolin2</t>
+  </si>
+  <si>
     <t>少林弟子玄明|少林弟子玄正|少林弟子玄济|少林弟子玄朗|少林弟子玄恒</t>
+  </si>
+  <si>
+    <t>Shaolin3</t>
   </si>
   <si>
     <t>张真人</t>
@@ -292,7 +288,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -303,7 +298,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -311,9 +305,15 @@
     </r>
   </si>
   <si>
+    <t>ZhangZhenRen</t>
+  </si>
+  <si>
     <t>脏道人</t>
   </si>
   <si>
+    <t>Wudang1</t>
+  </si>
+  <si>
     <t>一仙道长</t>
   </si>
   <si>
@@ -326,16 +326,28 @@
     <t>武当弟子石希灵|武当弟子邵希平|武当弟子王希静|武当弟子郭希明|武当弟子卢希英</t>
   </si>
   <si>
+    <t>Wudang2</t>
+  </si>
+  <si>
     <t>武当弟子龚微海|武当弟子严微鑫|武当弟子夏微正|武当弟子林微光|武当弟子陶微东</t>
   </si>
   <si>
+    <t>Wudang3</t>
+  </si>
+  <si>
     <t>绝绝师太</t>
   </si>
   <si>
     <t>Emei</t>
   </si>
   <si>
+    <t>Emei1</t>
+  </si>
+  <si>
     <t>独臂女冠</t>
+  </si>
+  <si>
+    <t>Emei2</t>
   </si>
   <si>
     <t>峨眉弟子清虚|峨眉弟子清照|峨眉弟子清迦|峨眉弟子清慧|峨眉弟子清净</t>
@@ -349,7 +361,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -360,7 +371,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -368,6 +378,9 @@
     </r>
   </si>
   <si>
+    <t>Emei3</t>
+  </si>
+  <si>
     <t>丘不君</t>
   </si>
   <si>
@@ -388,7 +401,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -399,7 +411,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -421,7 +432,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -432,7 +442,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -454,7 +463,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -465,7 +473,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -502,7 +509,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -513,7 +519,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -550,7 +555,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -561,7 +565,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -575,81 +578,56 @@
     <t>逍遥弟子朱厌|逍遥弟子帝江|逍遥弟子白泽|逍遥弟子毕方|逍遥弟子穷奇</t>
   </si>
   <si>
+    <t>熊</t>
+  </si>
+  <si>
+    <t>Beast</t>
+  </si>
+  <si>
+    <t>熊攻击</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>野猪</t>
+  </si>
+  <si>
+    <t>野猪攻击</t>
+  </si>
+  <si>
+    <t>鹿</t>
+  </si>
+  <si>
+    <t>鹿攻击</t>
+  </si>
+  <si>
+    <t>蛇</t>
+  </si>
+  <si>
+    <t>蛇攻击</t>
+  </si>
+  <si>
+    <t>狼</t>
+  </si>
+  <si>
+    <t>狼攻击</t>
+  </si>
+  <si>
     <t>座山雕|云中雁|金钱豹|双头蛇|林中虎</t>
   </si>
   <si>
     <t>Shanzei</t>
   </si>
   <si>
-    <t>shanzeiBoss_attack_1;shanzeiBoss_attack_2</t>
-  </si>
-  <si>
-    <t>ShanzeiBoss</t>
-  </si>
-  <si>
-    <t>山贼喽啰</t>
-  </si>
-  <si>
-    <t>shanzei_attack_1;shanzei_attack_2</t>
-  </si>
-  <si>
-    <t>Shanzei1</t>
-  </si>
-  <si>
-    <t>Shanzei2</t>
-  </si>
-  <si>
-    <t>刺客草上飞|刺客小旋风|刺客鼓上蚤</t>
-  </si>
-  <si>
-    <t>Cike</t>
-  </si>
-  <si>
-    <t>倭寇半藏|倭寇佐助|倭寇一郎|倭寇小五郎|倭寇龙马</t>
-  </si>
-  <si>
-    <t>Wokou</t>
-  </si>
-  <si>
-    <t>倭寇花屋|倭寇坂东|倭寇朱吉|倭寇耕二|倭寇小次郎</t>
-  </si>
-  <si>
-    <t>倭寇以藏|倭寇新兵卫|倭寇半次郎|倭寇彦斋|倭寇武藏</t>
-  </si>
-  <si>
-    <t>熊</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beast</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>野猪</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹿</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛇</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>山贼攻击1;山贼攻击2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>山大王攻击1</t>
     </r>
     <r>
@@ -657,40 +635,63 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>;山大王攻击2</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊攻击</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>野猪攻击</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹿攻击</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛇攻击</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼攻击</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shanzeiBoss_attack_1;shanzeiBoss_attack_2</t>
+  </si>
+  <si>
+    <t>ShanzeiBoss</t>
+  </si>
+  <si>
+    <t>山贼喽啰</t>
+  </si>
+  <si>
+    <t>山贼攻击1;山贼攻击2</t>
+  </si>
+  <si>
+    <t>shanzei_attack_1;shanzei_attack_2</t>
+  </si>
+  <si>
+    <t>Shanzei1</t>
+  </si>
+  <si>
+    <t>Shanzei2</t>
+  </si>
+  <si>
+    <t>刺客草上飞|刺客小旋风|刺客鼓上蚤</t>
+  </si>
+  <si>
+    <t>Cike</t>
+  </si>
+  <si>
+    <t>倭寇半藏|倭寇佐助|倭寇一郎|倭寇小五郎|倭寇龙马</t>
+  </si>
+  <si>
+    <t>Wokou</t>
+  </si>
+  <si>
+    <t>倭寇花屋|倭寇坂东|倭寇朱吉|倭寇耕二|倭寇小次郎</t>
+  </si>
+  <si>
+    <t>倭寇以藏|倭寇新兵卫|倭寇半次郎|倭寇彦斋|倭寇武藏</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -703,39 +704,165 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -744,12 +871,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -772,11 +1085,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -787,21 +1342,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1086,31 +1682,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="79.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.33636363636364" style="2" customWidth="1"/>
+    <col min="2" max="2" width="79.8909090909091" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.33636363636364" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26" style="2" customWidth="1"/>
+    <col min="5" max="5" width="50.8909090909091" style="2" customWidth="1"/>
     <col min="6" max="6" width="11" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1130,7 +1727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1150,7 +1747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1170,7 +1767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1190,7 +1787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>101</v>
       </c>
@@ -1210,7 +1807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>102</v>
       </c>
@@ -1227,15 +1824,15 @@
         <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>103</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
@@ -1247,30 +1844,30 @@
         <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>105</v>
       </c>
@@ -1281,16 +1878,16 @@
         <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>106</v>
       </c>
@@ -1301,16 +1898,16 @@
         <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>201</v>
       </c>
@@ -1327,15 +1924,15 @@
         <v>35</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>202</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>33</v>
@@ -1347,15 +1944,15 @@
         <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>203</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>33</v>
@@ -1367,98 +1964,98 @@
         <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>204</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>205</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>206</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>301</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <v>302</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>21</v>
@@ -1467,18 +2064,18 @@
         <v>22</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>303</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>21</v>
@@ -1487,78 +2084,78 @@
         <v>22</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>304</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>305</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>306</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>401</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>21</v>
@@ -1567,18 +2164,18 @@
         <v>22</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>402</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>21</v>
@@ -1587,38 +2184,38 @@
         <v>22</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>403</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>501</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>21</v>
@@ -1627,18 +2224,18 @@
         <v>22</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>502</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>21</v>
@@ -1647,78 +2244,78 @@
         <v>22</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>503</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <v>504</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
         <v>505</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <v>601</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>21</v>
@@ -1727,18 +2324,18 @@
         <v>22</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>602</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>21</v>
@@ -1747,78 +2344,78 @@
         <v>22</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <v>603</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <v>604</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <v>605</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <v>701</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>21</v>
@@ -1827,18 +2424,18 @@
         <v>22</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <v>702</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>21</v>
@@ -1847,18 +2444,18 @@
         <v>22</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
         <v>703</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>21</v>
@@ -1867,78 +2464,78 @@
         <v>22</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
         <v>704</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="2">
         <v>705</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="2">
         <v>706</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="2">
         <v>801</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>21</v>
@@ -1947,18 +2544,18 @@
         <v>22</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="2">
         <v>802</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>21</v>
@@ -1967,18 +2564,18 @@
         <v>22</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="2">
         <v>803</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>21</v>
@@ -1987,238 +2584,238 @@
         <v>22</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="2">
         <v>804</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="2">
         <v>805</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="2">
         <v>806</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="2">
         <v>9601</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="2">
         <v>9602</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>113</v>
+      <c r="E49" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="2">
         <v>9603</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>113</v>
+      <c r="C50" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="2">
         <v>9604</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E51" s="4" t="s">
+      <c r="B51" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>113</v>
       </c>
+      <c r="E51" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="F51" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="2">
         <v>9605</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>113</v>
+      <c r="B52" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="2">
         <v>9701</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="2">
         <v>9702</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="2">
         <v>9703</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="2">
         <v>9804</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>21</v>
@@ -2227,18 +2824,18 @@
         <v>22</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="2">
         <v>9901</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>21</v>
@@ -2247,18 +2844,18 @@
         <v>22</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="2">
         <v>9902</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>21</v>
@@ -2267,18 +2864,18 @@
         <v>22</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="2">
         <v>9903</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>21</v>
@@ -2287,16 +2884,16 @@
         <v>22</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C24">
+  <sortState ref="A3:C24">
     <sortCondition ref="A5"/>
   </sortState>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA150439-2E99-4A39-9A39-F4098FDA2A00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14080"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$F$59</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -17,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ian.yin</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0">
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -44,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -66,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -93,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="130">
   <si>
     <t>ID</t>
   </si>
@@ -177,12 +184,6 @@
     <t>长老洪七</t>
   </si>
   <si>
-    <t>太祖长拳</t>
-  </si>
-  <si>
-    <t>taizuchangquan</t>
-  </si>
-  <si>
     <t>Gaibang1</t>
   </si>
   <si>
@@ -684,14 +685,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -707,150 +702,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -861,8 +712,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -871,198 +728,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1085,253 +762,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1342,62 +777,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1682,32 +1079,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33636363636364" style="2" customWidth="1"/>
-    <col min="2" max="2" width="79.8909090909091" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.33636363636364" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="79.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="26" style="2" customWidth="1"/>
-    <col min="5" max="5" width="50.8909090909091" style="2" customWidth="1"/>
+    <col min="5" max="5" width="50.88671875" style="2" customWidth="1"/>
     <col min="6" max="6" width="11" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1727,7 +1123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1747,7 +1143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1767,7 +1163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1787,7 +1183,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>101</v>
       </c>
@@ -1807,7 +1203,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>102</v>
       </c>
@@ -1817,1083 +1213,1083 @@
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>103</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>105</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>201</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>202</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>203</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>22</v>
+      <c r="E13" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>204</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>205</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>206</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>301</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>302</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>22</v>
+        <v>46</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>303</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>304</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>305</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>306</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>401</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>402</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>403</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>501</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>22</v>
+        <v>69</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>502</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>22</v>
+      <c r="E27" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>503</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>504</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>505</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>601</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>22</v>
+        <v>77</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>602</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>22</v>
+      <c r="E32" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>603</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>604</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>605</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>701</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>22</v>
+        <v>85</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>702</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>22</v>
+        <v>85</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>703</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>22</v>
+      <c r="E38" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>704</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>705</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>706</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>801</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>22</v>
+        <v>94</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>802</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>22</v>
+        <v>94</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>803</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>22</v>
+      <c r="E44" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>804</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>805</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>806</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>9601</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>9602</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>9603</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>9604</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>9605</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>9701</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="E53" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="F53" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>9702</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D54" s="3" t="s">
+      <c r="F54" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>9703</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>9804</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>22</v>
+        <v>125</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>9901</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>22</v>
+        <v>127</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>9902</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>22</v>
+        <v>127</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>9903</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>22</v>
+        <v>127</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:C24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C24">
     <sortCondition ref="A5"/>
   </sortState>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA150439-2E99-4A39-9A39-F4098FDA2A00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7AECBF-6C22-4261-A3E8-2BCB0C3280B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="120">
   <si>
     <t>ID</t>
   </si>
@@ -502,31 +502,6 @@
     <t>魔教弟子风怜|魔教弟子宝音|魔教弟子诺敏|魔教弟子托娅|魔教弟子莎娜</t>
   </si>
   <si>
-    <t>魔刀;魔刀一闪</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>odao;modaoyishan</t>
-    </r>
-  </si>
-  <si>
     <t>魔教弟子哲别|魔教弟子牧仁|魔教弟子伯颜|魔教弟子那钦|魔教弟子托雷</t>
   </si>
   <si>
@@ -548,31 +523,6 @@
     <t>逍遥弟子高轩辕|逍遥弟子齐惊鸿|逍遥弟子祝游龙|逍遥弟子柏玄鹤|逍遥弟子苏白夔</t>
   </si>
   <si>
-    <t>波动拳;夜落星河剑</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>odongquan;yeluoxinghejian</t>
-    </r>
-  </si>
-  <si>
     <t>逍遥弟子叶星河|逍遥弟子欧阳春秋|逍遥弟子姜青衣|逍遥弟子韦幻真|逍遥弟子赵翠羽</t>
   </si>
   <si>
@@ -585,34 +535,16 @@
     <t>Beast</t>
   </si>
   <si>
-    <t>熊攻击</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
     <t>野猪</t>
   </si>
   <si>
-    <t>野猪攻击</t>
-  </si>
-  <si>
     <t>鹿</t>
   </si>
   <si>
-    <t>鹿攻击</t>
-  </si>
-  <si>
     <t>蛇</t>
   </si>
   <si>
-    <t>蛇攻击</t>
-  </si>
-  <si>
     <t>狼</t>
-  </si>
-  <si>
-    <t>狼攻击</t>
   </si>
   <si>
     <t>座山雕|云中雁|金钱豹|双头蛇|林中虎</t>
@@ -1088,8 +1020,8 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6:D7"/>
+      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1814,10 +1746,10 @@
         <v>85</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>36</v>
@@ -1834,10 +1766,10 @@
         <v>85</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>36</v>
@@ -1854,10 +1786,10 @@
         <v>85</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>36</v>
@@ -1873,11 +1805,11 @@
       <c r="C39" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>90</v>
+      <c r="D39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>36</v>
@@ -1888,16 +1820,16 @@
         <v>705</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>90</v>
+      <c r="D40" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>36</v>
@@ -1908,16 +1840,16 @@
         <v>706</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>90</v>
+      <c r="D41" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>36</v>
@@ -1928,16 +1860,16 @@
         <v>801</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>36</v>
@@ -1948,16 +1880,16 @@
         <v>802</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>36</v>
@@ -1968,16 +1900,16 @@
         <v>803</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>36</v>
@@ -1988,16 +1920,16 @@
         <v>804</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>36</v>
@@ -2008,16 +1940,16 @@
         <v>805</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>36</v>
@@ -2028,16 +1960,16 @@
         <v>806</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>36</v>
@@ -2048,16 +1980,16 @@
         <v>9601</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>36</v>
@@ -2068,16 +2000,16 @@
         <v>9602</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>36</v>
@@ -2088,16 +2020,16 @@
         <v>9603</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>36</v>
@@ -2108,16 +2040,16 @@
         <v>9604</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>36</v>
@@ -2128,16 +2060,16 @@
         <v>9605</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>36</v>
@@ -2148,19 +2080,19 @@
         <v>9701</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2168,19 +2100,19 @@
         <v>9702</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2188,19 +2120,19 @@
         <v>9703</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2208,10 +2140,10 @@
         <v>9804</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>39</v>
@@ -2228,10 +2160,10 @@
         <v>9901</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>39</v>
@@ -2248,10 +2180,10 @@
         <v>9902</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>39</v>
@@ -2268,10 +2200,10 @@
         <v>9903</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>39</v>

--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7AECBF-6C22-4261-A3E8-2BCB0C3280B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="14080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +18,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ian.yin</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="A10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="135">
   <si>
     <t>ID</t>
   </si>
@@ -184,6 +178,12 @@
     <t>长老洪七</t>
   </si>
   <si>
+    <t>打狗棒法;钓鱼棍法</t>
+  </si>
+  <si>
+    <t>dagoubangfa;diaoyugunfa</t>
+  </si>
+  <si>
     <t>Gaibang1</t>
   </si>
   <si>
@@ -191,12 +191,6 @@
   </si>
   <si>
     <t>丐帮弟子何流儿|丐帮弟子王小江|丐帮弟子李狗儿|丐帮弟子张小六|丐帮弟子郑哑儿</t>
-  </si>
-  <si>
-    <t>打狗棒法;钓鱼棍法</t>
-  </si>
-  <si>
-    <t>dagoubangfa;diaoyugunfa</t>
   </si>
   <si>
     <t>丐帮弟子左老黑|丐帮弟子袁大楚|丐帮弟子刘大开|丐帮弟子汤老头|丐帮弟子鲁有手</t>
@@ -248,6 +242,12 @@
     <t>火头僧</t>
   </si>
   <si>
+    <t>罗汉伏魔拳;千手如来掌</t>
+  </si>
+  <si>
+    <t>luohanfumoquan;qianshourulaizhang</t>
+  </si>
+  <si>
     <t>Shaolin1</t>
   </si>
   <si>
@@ -255,12 +255,6 @@
   </si>
   <si>
     <t>少林弟子悟真|少林弟子悟缘|少林弟子悟心|少林弟子悟一|少林弟子悟觉</t>
-  </si>
-  <si>
-    <t>罗汉伏魔拳;千手如来掌</t>
-  </si>
-  <si>
-    <t>luohanfumoquan;qianshourulaizhang</t>
   </si>
   <si>
     <t>少林弟子圆智|少林弟子圆普|少林弟子圆广|少林弟子圆静|少林弟子圆海</t>
@@ -312,6 +306,9 @@
     <t>脏道人</t>
   </si>
   <si>
+    <t>taijijianfa;taijizhang</t>
+  </si>
+  <si>
     <t>Wudang1</t>
   </si>
   <si>
@@ -321,9 +318,6 @@
     <t>武当弟子徐希真|武当弟子任希武|武当弟子罗希宝|武当弟子沈希剑|武当弟子方希峰</t>
   </si>
   <si>
-    <t>taijijianfa;taijizhang</t>
-  </si>
-  <si>
     <t>武当弟子石希灵|武当弟子邵希平|武当弟子王希静|武当弟子郭希明|武当弟子卢希英</t>
   </si>
   <si>
@@ -340,18 +334,6 @@
   </si>
   <si>
     <t>Emei</t>
-  </si>
-  <si>
-    <t>Emei1</t>
-  </si>
-  <si>
-    <t>独臂女冠</t>
-  </si>
-  <si>
-    <t>Emei2</t>
-  </si>
-  <si>
-    <t>峨眉弟子清虚|峨眉弟子清照|峨眉弟子清迦|峨眉弟子清慧|峨眉弟子清净</t>
   </si>
   <si>
     <t>青莲女神剑;白蟒鞭</t>
@@ -379,6 +361,18 @@
     </r>
   </si>
   <si>
+    <t>Emei1</t>
+  </si>
+  <si>
+    <t>独臂女冠</t>
+  </si>
+  <si>
+    <t>Emei2</t>
+  </si>
+  <si>
+    <t>峨眉弟子清虚|峨眉弟子清照|峨眉弟子清迦|峨眉弟子清慧|峨眉弟子清净</t>
+  </si>
+  <si>
     <t>Emei3</t>
   </si>
   <si>
@@ -386,12 +380,6 @@
   </si>
   <si>
     <t>Huashan</t>
-  </si>
-  <si>
-    <t>山不羊</t>
-  </si>
-  <si>
-    <t>华山弟子于大通|华山弟子曹大有|华山弟子陈大冲|华山弟子曾大莲|华山弟子姚大诚</t>
   </si>
   <si>
     <t>华山剑法;御剑术</t>
@@ -419,6 +407,12 @@
     </r>
   </si>
   <si>
+    <t>山不羊</t>
+  </si>
+  <si>
+    <t>华山弟子于大通|华山弟子曹大有|华山弟子陈大冲|华山弟子曾大莲|华山弟子姚大诚</t>
+  </si>
+  <si>
     <t>华山弟子田光崇|华山弟子应光和|华山弟子谢光德|华山弟子佘光正|华山弟子黄光仁</t>
   </si>
   <si>
@@ -450,12 +444,6 @@
     </r>
   </si>
   <si>
-    <t>红药</t>
-  </si>
-  <si>
-    <t>五毒弟子彩凤|五毒弟子珊瑚|五毒弟子孔雀|五毒弟子珍珠|五毒弟子琥珀</t>
-  </si>
-  <si>
     <t>五毒神鞭;千蛛万毒手</t>
   </si>
   <si>
@@ -481,12 +469,27 @@
     </r>
   </si>
   <si>
+    <t>Wudu1</t>
+  </si>
+  <si>
+    <t>红药</t>
+  </si>
+  <si>
+    <t>五毒弟子彩凤|五毒弟子珊瑚|五毒弟子孔雀|五毒弟子珍珠|五毒弟子琥珀</t>
+  </si>
+  <si>
     <t>五毒弟子罗刹|五毒弟子夜叉|五毒弟子修罗|五毒弟子迦楼|五毒弟子摩侯</t>
   </si>
   <si>
+    <t>Wudu2</t>
+  </si>
+  <si>
     <t>五毒弟子蝎心|五毒弟子蟾鸣|五毒弟子蛇影|五毒弟子千足|五毒弟子牵丝</t>
   </si>
   <si>
+    <t>Wudu3</t>
+  </si>
+  <si>
     <t>明教主</t>
   </si>
   <si>
@@ -535,16 +538,46 @@
     <t>Beast</t>
   </si>
   <si>
+    <t>bear_attack</t>
+  </si>
+  <si>
+    <t>Bear</t>
+  </si>
+  <si>
     <t>野猪</t>
   </si>
   <si>
+    <t>pig_attack</t>
+  </si>
+  <si>
+    <t>Boar</t>
+  </si>
+  <si>
     <t>鹿</t>
   </si>
   <si>
+    <t>deer_attack</t>
+  </si>
+  <si>
+    <t>Deer</t>
+  </si>
+  <si>
     <t>蛇</t>
   </si>
   <si>
+    <t>snake_attack</t>
+  </si>
+  <si>
+    <t>Snake</t>
+  </si>
+  <si>
     <t>狼</t>
+  </si>
+  <si>
+    <t>wolf_attack</t>
+  </si>
+  <si>
+    <t>Wolf</t>
   </si>
   <si>
     <t>座山雕|云中雁|金钱豹|双头蛇|林中虎</t>
@@ -602,6 +635,12 @@
     <t>Cike</t>
   </si>
   <si>
+    <t>cike_attack_1;cike_attack_2</t>
+  </si>
+  <si>
+    <t>Cike1</t>
+  </si>
+  <si>
     <t>倭寇半藏|倭寇佐助|倭寇一郎|倭寇小五郎|倭寇龙马</t>
   </si>
   <si>
@@ -617,8 +656,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,6 +679,150 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -644,14 +833,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -660,7 +843,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,8 +853,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -694,9 +1063,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -716,17 +1327,61 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1011,31 +1666,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
+      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="79.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.33636363636364" style="2" customWidth="1"/>
+    <col min="2" max="2" width="79.8909090909091" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.33636363636364" style="2" customWidth="1"/>
     <col min="4" max="4" width="26" style="2" customWidth="1"/>
-    <col min="5" max="5" width="50.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="50.8909090909091" style="2" customWidth="1"/>
     <col min="6" max="6" width="11" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1055,7 +1711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1075,7 +1731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1095,7 +1751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1115,7 +1771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>101</v>
       </c>
@@ -1135,7 +1791,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>102</v>
       </c>
@@ -1146,56 +1802,56 @@
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>103</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>105</v>
       </c>
@@ -1206,16 +1862,16 @@
         <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>106</v>
       </c>
@@ -1226,16 +1882,16 @@
         <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>201</v>
       </c>
@@ -1255,7 +1911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>202</v>
       </c>
@@ -1266,56 +1922,56 @@
         <v>31</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>203</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>204</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>205</v>
       </c>
@@ -1326,16 +1982,16 @@
         <v>31</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>206</v>
       </c>
@@ -1346,16 +2002,16 @@
         <v>31</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>301</v>
       </c>
@@ -1375,7 +2031,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <v>302</v>
       </c>
@@ -1389,18 +2045,18 @@
         <v>47</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>303</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>46</v>
@@ -1409,18 +2065,18 @@
         <v>47</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>304</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>46</v>
@@ -1429,13 +2085,13 @@
         <v>47</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>305</v>
       </c>
@@ -1449,13 +2105,13 @@
         <v>47</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>306</v>
       </c>
@@ -1469,13 +2125,13 @@
         <v>47</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>401</v>
       </c>
@@ -1486,56 +2142,56 @@
         <v>60</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>402</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>403</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>501</v>
       </c>
@@ -1546,56 +2202,56 @@
         <v>69</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>502</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>503</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <v>504</v>
       </c>
@@ -1606,16 +2262,16 @@
         <v>69</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
         <v>505</v>
       </c>
@@ -1626,16 +2282,16 @@
         <v>69</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <v>601</v>
       </c>
@@ -1646,582 +2302,582 @@
         <v>77</v>
       </c>
       <c r="D31" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>602</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <v>603</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <v>604</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <v>605</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <v>701</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <v>702</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
         <v>703</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
         <v>704</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="D39" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="2">
         <v>705</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="2">
         <v>706</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="2">
         <v>801</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="2">
         <v>802</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="2">
         <v>803</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="2">
         <v>804</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="D45" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="2">
         <v>805</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="2">
         <v>806</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="2">
         <v>9601</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="2">
         <v>9602</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="2">
         <v>9603</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="2">
         <v>9604</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="D51" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="2">
         <v>9605</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="2">
         <v>9701</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="2">
         <v>9702</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="2">
         <v>9703</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="2">
         <v>9804</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="2">
         <v>9901</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="2">
         <v>9902</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="2">
         <v>9903</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C24">
+  <sortState ref="A3:C24">
     <sortCondition ref="A5"/>
   </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20486243-467B-4A84-83E5-1430FDBBE671}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14080"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ian.yin</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0">
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -94,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="141">
   <si>
     <t>ID</t>
   </si>
@@ -652,18 +658,49 @@
   <si>
     <t>倭寇以藏|倭寇新兵卫|倭寇半次郎|倭寇彦斋|倭寇武藏</t>
   </si>
+  <si>
+    <t>熊攻击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>野猪攻击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹿攻击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇攻击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼攻击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>刺客攻击1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;刺客攻击2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,150 +716,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -833,8 +726,22 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -843,7 +750,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,194 +760,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1063,253 +784,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1326,62 +805,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1666,32 +1104,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33636363636364" style="2" customWidth="1"/>
-    <col min="2" max="2" width="79.8909090909091" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.33636363636364" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="79.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="26" style="2" customWidth="1"/>
-    <col min="5" max="5" width="50.8909090909091" style="2" customWidth="1"/>
+    <col min="5" max="5" width="50.88671875" style="2" customWidth="1"/>
     <col min="6" max="6" width="11" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1711,7 +1148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1731,7 +1168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1751,7 +1188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1771,7 +1208,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>101</v>
       </c>
@@ -1791,7 +1228,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>102</v>
       </c>
@@ -1811,7 +1248,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>103</v>
       </c>
@@ -1831,7 +1268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>104</v>
       </c>
@@ -1851,7 +1288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>105</v>
       </c>
@@ -1871,7 +1308,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>106</v>
       </c>
@@ -1891,7 +1328,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>201</v>
       </c>
@@ -1911,7 +1348,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>202</v>
       </c>
@@ -1931,7 +1368,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>203</v>
       </c>
@@ -1951,7 +1388,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>204</v>
       </c>
@@ -1971,7 +1408,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>205</v>
       </c>
@@ -1991,7 +1428,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>206</v>
       </c>
@@ -2011,7 +1448,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>301</v>
       </c>
@@ -2031,7 +1468,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>302</v>
       </c>
@@ -2051,7 +1488,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>303</v>
       </c>
@@ -2071,7 +1508,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>304</v>
       </c>
@@ -2091,7 +1528,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>305</v>
       </c>
@@ -2111,7 +1548,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>306</v>
       </c>
@@ -2131,7 +1568,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>401</v>
       </c>
@@ -2151,7 +1588,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>402</v>
       </c>
@@ -2171,7 +1608,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>403</v>
       </c>
@@ -2191,7 +1628,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>501</v>
       </c>
@@ -2211,7 +1648,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>502</v>
       </c>
@@ -2231,7 +1668,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>503</v>
       </c>
@@ -2251,7 +1688,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>504</v>
       </c>
@@ -2271,7 +1708,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>505</v>
       </c>
@@ -2291,7 +1728,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>601</v>
       </c>
@@ -2311,7 +1748,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>602</v>
       </c>
@@ -2331,7 +1768,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>603</v>
       </c>
@@ -2351,7 +1788,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>604</v>
       </c>
@@ -2371,7 +1808,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>605</v>
       </c>
@@ -2391,7 +1828,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>701</v>
       </c>
@@ -2411,7 +1848,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>702</v>
       </c>
@@ -2431,7 +1868,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>703</v>
       </c>
@@ -2451,7 +1888,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>704</v>
       </c>
@@ -2471,7 +1908,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>705</v>
       </c>
@@ -2491,7 +1928,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>706</v>
       </c>
@@ -2511,7 +1948,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>801</v>
       </c>
@@ -2531,7 +1968,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>802</v>
       </c>
@@ -2551,7 +1988,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>803</v>
       </c>
@@ -2571,7 +2008,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>804</v>
       </c>
@@ -2591,7 +2028,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>805</v>
       </c>
@@ -2611,7 +2048,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>806</v>
       </c>
@@ -2631,7 +2068,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>9601</v>
       </c>
@@ -2642,7 +2079,7 @@
         <v>102</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>103</v>
@@ -2651,7 +2088,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>9602</v>
       </c>
@@ -2661,8 +2098,8 @@
       <c r="C49" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>36</v>
+      <c r="D49" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>106</v>
@@ -2671,7 +2108,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>9603</v>
       </c>
@@ -2681,8 +2118,8 @@
       <c r="C50" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>36</v>
+      <c r="D50" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>109</v>
@@ -2691,7 +2128,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>9604</v>
       </c>
@@ -2701,8 +2138,8 @@
       <c r="C51" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>36</v>
+      <c r="D51" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>112</v>
@@ -2711,7 +2148,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>9605</v>
       </c>
@@ -2721,8 +2158,8 @@
       <c r="C52" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>36</v>
+      <c r="D52" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>115</v>
@@ -2731,7 +2168,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>9701</v>
       </c>
@@ -2751,7 +2188,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>9702</v>
       </c>
@@ -2771,7 +2208,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>9703</v>
       </c>
@@ -2791,7 +2228,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>9804</v>
       </c>
@@ -2801,8 +2238,8 @@
       <c r="C56" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>36</v>
+      <c r="D56" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>129</v>
@@ -2811,7 +2248,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>9901</v>
       </c>
@@ -2831,7 +2268,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>9902</v>
       </c>
@@ -2851,7 +2288,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>9903</v>
       </c>
@@ -2872,12 +2309,12 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:C24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C24">
     <sortCondition ref="A5"/>
   </sortState>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20486243-467B-4A84-83E5-1430FDBBE671}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="29410" windowHeight="11080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +18,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ian.yin</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="A10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -544,46 +538,61 @@
     <t>Beast</t>
   </si>
   <si>
+    <t>熊攻击</t>
+  </si>
+  <si>
     <t>bear_attack</t>
   </si>
   <si>
-    <t>Bear</t>
+    <t>BearPrefab</t>
   </si>
   <si>
     <t>野猪</t>
   </si>
   <si>
+    <t>野猪攻击</t>
+  </si>
+  <si>
     <t>pig_attack</t>
   </si>
   <si>
-    <t>Boar</t>
+    <t>BoarPrefab</t>
   </si>
   <si>
     <t>鹿</t>
   </si>
   <si>
+    <t>鹿攻击</t>
+  </si>
+  <si>
     <t>deer_attack</t>
   </si>
   <si>
-    <t>Deer</t>
+    <t>DeerPrefab</t>
   </si>
   <si>
     <t>蛇</t>
   </si>
   <si>
+    <t>蛇攻击</t>
+  </si>
+  <si>
     <t>snake_attack</t>
   </si>
   <si>
-    <t>Snake</t>
+    <t>SnakePrefab</t>
   </si>
   <si>
     <t>狼</t>
   </si>
   <si>
+    <t>狼攻击</t>
+  </si>
+  <si>
     <t>wolf_attack</t>
   </si>
   <si>
-    <t>Wolf</t>
+    <t>WolfPrefab</t>
   </si>
   <si>
     <t>座山雕|云中雁|金钱豹|双头蛇|林中虎</t>
@@ -641,45 +650,14 @@
     <t>Cike</t>
   </si>
   <si>
-    <t>cike_attack_1;cike_attack_2</t>
-  </si>
-  <si>
-    <t>Cike1</t>
-  </si>
-  <si>
-    <t>倭寇半藏|倭寇佐助|倭寇一郎|倭寇小五郎|倭寇龙马</t>
-  </si>
-  <si>
-    <t>Wokou</t>
-  </si>
-  <si>
-    <t>倭寇花屋|倭寇坂东|倭寇朱吉|倭寇耕二|倭寇小次郎</t>
-  </si>
-  <si>
-    <t>倭寇以藏|倭寇新兵卫|倭寇半次郎|倭寇彦斋|倭寇武藏</t>
-  </si>
-  <si>
-    <t>熊攻击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>野猪攻击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹿攻击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛇攻击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼攻击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>刺客攻击1</t>
     </r>
     <r>
@@ -687,20 +665,42 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>;刺客攻击2</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cike_attack_1;cike_attack_2</t>
+  </si>
+  <si>
+    <t>Cike1</t>
+  </si>
+  <si>
+    <t>倭寇半藏|倭寇佐助|倭寇一郎|倭寇小五郎|倭寇龙马</t>
+  </si>
+  <si>
+    <t>Wokou</t>
+  </si>
+  <si>
+    <t>倭寇花屋|倭寇坂东|倭寇朱吉|倭寇耕二|倭寇小次郎</t>
+  </si>
+  <si>
+    <t>倭寇以藏|倭寇新兵卫|倭寇半次郎|倭寇彦斋|倭寇武藏</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,6 +716,157 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -726,22 +877,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -750,7 +887,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,8 +897,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -784,9 +1107,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -805,21 +1370,65 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1104,31 +1713,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="79.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.33636363636364" style="2" customWidth="1"/>
+    <col min="2" max="2" width="79.8909090909091" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.33636363636364" style="2" customWidth="1"/>
     <col min="4" max="4" width="26" style="2" customWidth="1"/>
-    <col min="5" max="5" width="50.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="50.8909090909091" style="2" customWidth="1"/>
     <col min="6" max="6" width="11" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1148,7 +1758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1168,7 +1778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1188,7 +1798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1208,7 +1818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>101</v>
       </c>
@@ -1228,7 +1838,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>102</v>
       </c>
@@ -1248,7 +1858,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>103</v>
       </c>
@@ -1268,7 +1878,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>104</v>
       </c>
@@ -1288,7 +1898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>105</v>
       </c>
@@ -1308,7 +1918,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>106</v>
       </c>
@@ -1328,7 +1938,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>201</v>
       </c>
@@ -1348,7 +1958,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>202</v>
       </c>
@@ -1368,7 +1978,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>203</v>
       </c>
@@ -1388,7 +1998,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>204</v>
       </c>
@@ -1408,7 +2018,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>205</v>
       </c>
@@ -1428,7 +2038,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>206</v>
       </c>
@@ -1448,7 +2058,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>301</v>
       </c>
@@ -1468,7 +2078,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <v>302</v>
       </c>
@@ -1488,7 +2098,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>303</v>
       </c>
@@ -1508,7 +2118,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>304</v>
       </c>
@@ -1528,7 +2138,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>305</v>
       </c>
@@ -1548,7 +2158,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>306</v>
       </c>
@@ -1568,7 +2178,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>401</v>
       </c>
@@ -1588,7 +2198,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>402</v>
       </c>
@@ -1608,7 +2218,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>403</v>
       </c>
@@ -1628,7 +2238,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>501</v>
       </c>
@@ -1648,7 +2258,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>502</v>
       </c>
@@ -1668,7 +2278,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>503</v>
       </c>
@@ -1688,7 +2298,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <v>504</v>
       </c>
@@ -1708,7 +2318,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
         <v>505</v>
       </c>
@@ -1728,7 +2338,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <v>601</v>
       </c>
@@ -1748,7 +2358,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>602</v>
       </c>
@@ -1768,7 +2378,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <v>603</v>
       </c>
@@ -1788,7 +2398,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <v>604</v>
       </c>
@@ -1808,7 +2418,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <v>605</v>
       </c>
@@ -1828,7 +2438,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <v>701</v>
       </c>
@@ -1848,7 +2458,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <v>702</v>
       </c>
@@ -1868,7 +2478,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
         <v>703</v>
       </c>
@@ -1888,7 +2498,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
         <v>704</v>
       </c>
@@ -1908,7 +2518,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="2">
         <v>705</v>
       </c>
@@ -1928,7 +2538,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="2">
         <v>706</v>
       </c>
@@ -1948,7 +2558,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="2">
         <v>801</v>
       </c>
@@ -1968,7 +2578,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="2">
         <v>802</v>
       </c>
@@ -1988,7 +2598,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="2">
         <v>803</v>
       </c>
@@ -2008,7 +2618,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="2">
         <v>804</v>
       </c>
@@ -2028,7 +2638,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="2">
         <v>805</v>
       </c>
@@ -2048,7 +2658,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="2">
         <v>806</v>
       </c>
@@ -2068,7 +2678,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="2">
         <v>9601</v>
       </c>
@@ -2079,184 +2689,184 @@
         <v>102</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="2">
         <v>9602</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>102</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="2">
         <v>9603</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>102</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="2">
         <v>9604</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>102</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="2">
         <v>9605</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>102</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="2">
         <v>9701</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="2">
         <v>9702</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="2">
         <v>9703</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="2">
         <v>9804</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="2">
         <v>9901</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>36</v>
@@ -2268,15 +2878,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="2">
         <v>9902</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>36</v>
@@ -2288,15 +2898,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="2">
         <v>9903</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>36</v>
@@ -2309,12 +2919,12 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C24">
+  <sortState ref="A3:C24">
     <sortCondition ref="A5"/>
   </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29410" windowHeight="11080"/>
+    <workbookView windowWidth="25240" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="146">
   <si>
     <t>ID</t>
   </si>
@@ -248,13 +248,19 @@
     <t>luohanfumoquan;qianshourulaizhang</t>
   </si>
   <si>
+    <t>HoutousengPrefab</t>
+  </si>
+  <si>
+    <t>扫地僧</t>
+  </si>
+  <si>
+    <t>SaodisengPrefab</t>
+  </si>
+  <si>
+    <t>少林弟子悟真|少林弟子悟缘|少林弟子悟心|少林弟子悟一|少林弟子悟觉</t>
+  </si>
+  <si>
     <t>Shaolin1</t>
-  </si>
-  <si>
-    <t>扫地僧</t>
-  </si>
-  <si>
-    <t>少林弟子悟真|少林弟子悟缘|少林弟子悟心|少林弟子悟一|少林弟子悟觉</t>
   </si>
   <si>
     <t>少林弟子圆智|少林弟子圆普|少林弟子圆广|少林弟子圆静|少林弟子圆海</t>
@@ -361,7 +367,7 @@
     </r>
   </si>
   <si>
-    <t>Emei1</t>
+    <t>Juejueshitai</t>
   </si>
   <si>
     <t>独臂女冠</t>
@@ -684,10 +690,19 @@
     <t>Wokou</t>
   </si>
   <si>
+    <t>Wokou1</t>
+  </si>
+  <si>
     <t>倭寇花屋|倭寇坂东|倭寇朱吉|倭寇耕二|倭寇小次郎</t>
   </si>
   <si>
+    <t>Wokou2</t>
+  </si>
+  <si>
     <t>倭寇以藏|倭寇新兵卫|倭寇半次郎|倭寇彦斋|倭寇武藏</t>
+  </si>
+  <si>
+    <t>Wokou3</t>
   </si>
 </sst>
 </file>
@@ -695,12 +710,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -719,54 +734,10 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -790,7 +761,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,7 +776,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -829,8 +807,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,10 +853,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -905,181 +913,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,16 +1116,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1126,8 +1152,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1149,15 +1190,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1167,41 +1199,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1211,10 +1219,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1223,137 +1231,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1368,9 +1376,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1722,9 +1727,9 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1734,7 +1739,7 @@
     <col min="3" max="3" width="8.33636363636364" style="2" customWidth="1"/>
     <col min="4" max="4" width="26" style="2" customWidth="1"/>
     <col min="5" max="5" width="50.8909090909091" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.0909090909091" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1995,7 +2000,7 @@
         <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2003,7 +2008,7 @@
         <v>204</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>31</v>
@@ -2015,7 +2020,7 @@
         <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2023,7 +2028,7 @@
         <v>205</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>31</v>
@@ -2035,7 +2040,7 @@
         <v>37</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2043,7 +2048,7 @@
         <v>206</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>31</v>
@@ -2055,7 +2060,7 @@
         <v>37</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2063,19 +2068,19 @@
         <v>301</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2083,19 +2088,19 @@
         <v>302</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2103,19 +2108,19 @@
         <v>303</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2123,19 +2128,19 @@
         <v>304</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2143,19 +2148,19 @@
         <v>305</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2163,19 +2168,19 @@
         <v>306</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2183,19 +2188,19 @@
         <v>401</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2203,19 +2208,19 @@
         <v>402</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2223,19 +2228,19 @@
         <v>403</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2243,19 +2248,19 @@
         <v>501</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2263,19 +2268,19 @@
         <v>502</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="E27" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2283,19 +2288,19 @@
         <v>503</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2303,19 +2308,19 @@
         <v>504</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2323,19 +2328,19 @@
         <v>505</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2343,19 +2348,19 @@
         <v>601</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2363,19 +2368,19 @@
         <v>602</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2383,19 +2388,19 @@
         <v>603</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2403,19 +2408,19 @@
         <v>604</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2423,19 +2428,19 @@
         <v>605</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2443,10 +2448,10 @@
         <v>701</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>36</v>
@@ -2455,7 +2460,7 @@
         <v>37</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2463,10 +2468,10 @@
         <v>702</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>36</v>
@@ -2475,7 +2480,7 @@
         <v>37</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2483,10 +2488,10 @@
         <v>703</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>36</v>
@@ -2495,7 +2500,7 @@
         <v>37</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2503,10 +2508,10 @@
         <v>704</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>36</v>
@@ -2515,7 +2520,7 @@
         <v>37</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2523,10 +2528,10 @@
         <v>705</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>36</v>
@@ -2535,7 +2540,7 @@
         <v>37</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2543,10 +2548,10 @@
         <v>706</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>36</v>
@@ -2555,7 +2560,7 @@
         <v>37</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2563,10 +2568,10 @@
         <v>801</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>36</v>
@@ -2575,7 +2580,7 @@
         <v>37</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2583,10 +2588,10 @@
         <v>802</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>36</v>
@@ -2595,7 +2600,7 @@
         <v>37</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2603,10 +2608,10 @@
         <v>803</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>36</v>
@@ -2615,7 +2620,7 @@
         <v>37</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2623,10 +2628,10 @@
         <v>804</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>36</v>
@@ -2635,7 +2640,7 @@
         <v>37</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2643,10 +2648,10 @@
         <v>805</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>36</v>
@@ -2655,7 +2660,7 @@
         <v>37</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2663,10 +2668,10 @@
         <v>806</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>36</v>
@@ -2675,7 +2680,7 @@
         <v>37</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2683,19 +2688,19 @@
         <v>9601</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2703,19 +2708,19 @@
         <v>9602</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2723,19 +2728,19 @@
         <v>9603</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>111</v>
+        <v>104</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2743,19 +2748,19 @@
         <v>9604</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>115</v>
+        <v>104</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2763,19 +2768,19 @@
         <v>9605</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>119</v>
+        <v>104</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2783,19 +2788,19 @@
         <v>9701</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2803,19 +2808,19 @@
         <v>9702</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2823,19 +2828,19 @@
         <v>9703</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2843,19 +2848,19 @@
         <v>9804</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2863,10 +2868,10 @@
         <v>9901</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>36</v>
@@ -2875,7 +2880,7 @@
         <v>37</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2883,10 +2888,10 @@
         <v>9902</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>36</v>
@@ -2895,7 +2900,7 @@
         <v>37</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2903,10 +2908,10 @@
         <v>9903</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>36</v>
@@ -2915,7 +2920,7 @@
         <v>37</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>38</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25240" windowHeight="12630"/>
+    <workbookView windowWidth="26010" windowHeight="17780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="149">
   <si>
     <t>ID</t>
   </si>
@@ -248,7 +248,7 @@
     <t>luohanfumoquan;qianshourulaizhang</t>
   </si>
   <si>
-    <t>HoutousengPrefab</t>
+    <t>HuotousengPrefab</t>
   </si>
   <si>
     <t>扫地僧</t>
@@ -367,7 +367,7 @@
     </r>
   </si>
   <si>
-    <t>Juejueshitai</t>
+    <t>Emei1</t>
   </si>
   <si>
     <t>独臂女冠</t>
@@ -419,10 +419,19 @@
     <t>华山弟子于大通|华山弟子曹大有|华山弟子陈大冲|华山弟子曾大莲|华山弟子姚大诚</t>
   </si>
   <si>
+    <t>Huashan1</t>
+  </si>
+  <si>
     <t>华山弟子田光崇|华山弟子应光和|华山弟子谢光德|华山弟子佘光正|华山弟子黄光仁</t>
   </si>
   <si>
+    <t>Huashan2</t>
+  </si>
+  <si>
     <t>华山弟子宋光养|华山弟子马光贤|华山弟子孔光纯|华山弟子叶光敬|华山弟子乔光升</t>
+  </si>
+  <si>
+    <t>Huashan3</t>
   </si>
   <si>
     <t>五毒圣君</t>
@@ -1727,9 +1736,9 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -2300,7 +2309,7 @@
         <v>73</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2308,7 +2317,7 @@
         <v>504</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>71</v>
@@ -2320,7 +2329,7 @@
         <v>73</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2328,7 +2337,7 @@
         <v>505</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>71</v>
@@ -2340,7 +2349,7 @@
         <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2348,19 +2357,19 @@
         <v>601</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2368,19 +2377,19 @@
         <v>602</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="E32" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2388,19 +2397,19 @@
         <v>603</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2408,19 +2417,19 @@
         <v>604</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2428,19 +2437,19 @@
         <v>605</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2448,10 +2457,10 @@
         <v>701</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>36</v>
@@ -2468,10 +2477,10 @@
         <v>702</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>36</v>
@@ -2488,10 +2497,10 @@
         <v>703</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>36</v>
@@ -2508,10 +2517,10 @@
         <v>704</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>36</v>
@@ -2528,10 +2537,10 @@
         <v>705</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>36</v>
@@ -2548,10 +2557,10 @@
         <v>706</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>36</v>
@@ -2568,10 +2577,10 @@
         <v>801</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>36</v>
@@ -2588,10 +2597,10 @@
         <v>802</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>36</v>
@@ -2608,10 +2617,10 @@
         <v>803</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>36</v>
@@ -2628,10 +2637,10 @@
         <v>804</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>36</v>
@@ -2648,10 +2657,10 @@
         <v>805</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>36</v>
@@ -2668,10 +2677,10 @@
         <v>806</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>36</v>
@@ -2688,19 +2697,19 @@
         <v>9601</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2708,19 +2717,19 @@
         <v>9602</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2728,19 +2737,19 @@
         <v>9603</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2748,19 +2757,19 @@
         <v>9604</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2768,19 +2777,19 @@
         <v>9605</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2788,19 +2797,19 @@
         <v>9701</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2808,19 +2817,19 @@
         <v>9702</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2828,19 +2837,19 @@
         <v>9703</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2848,19 +2857,19 @@
         <v>9804</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2868,10 +2877,10 @@
         <v>9901</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>36</v>
@@ -2880,7 +2889,7 @@
         <v>37</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2888,10 +2897,10 @@
         <v>9902</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>36</v>
@@ -2900,7 +2909,7 @@
         <v>37</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2908,10 +2917,10 @@
         <v>9903</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>36</v>
@@ -2920,7 +2929,7 @@
         <v>37</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2AAB1E-C692-4ED5-9886-E543A0698E7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="26010" windowHeight="17780"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ian.yin</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0">
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -94,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="151">
   <si>
     <t>ID</t>
   </si>
@@ -150,28 +156,6 @@
     <t>降龙掌;擒龙功</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ianglongzhang;qinlonggong</t>
-    </r>
-  </si>
-  <si>
     <t>Qiaofeng</t>
   </si>
   <si>
@@ -214,28 +198,6 @@
     <t>如来神掌;禅杖功</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ulaishenzhang;chanzhanggong</t>
-    </r>
-  </si>
-  <si>
     <t>Xuankong</t>
   </si>
   <si>
@@ -282,28 +244,6 @@
   </si>
   <si>
     <t>太极剑法;太极拳</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>aijijianfa;taijiquan</t>
-    </r>
   </si>
   <si>
     <t>ZhangZhenRen</t>
@@ -713,18 +653,45 @@
   <si>
     <t>Wokou3</t>
   </si>
+  <si>
+    <t>xianglongzhang_qiaofeng;qinlonggong</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>rulaishenzhang_fangzhang;chanzhanggong</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>laoyuechanfa;jiuyanggong</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>luohanfumoquan;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yijinjing_saodiseng</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>taijijianfa_zhangzhenren;taijiquan_zhangzhenren</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -740,150 +707,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -894,8 +717,22 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -904,7 +741,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,194 +751,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1124,253 +775,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1387,62 +796,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1727,32 +1098,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5:E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33636363636364" style="2" customWidth="1"/>
-    <col min="2" max="2" width="79.8909090909091" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.33636363636364" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="79.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="26" style="2" customWidth="1"/>
-    <col min="5" max="5" width="50.8909090909091" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.0909090909091" style="2" customWidth="1"/>
+    <col min="5" max="5" width="50.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1772,7 +1142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1792,7 +1162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1812,7 +1182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1832,7 +1202,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>101</v>
       </c>
@@ -1845,1100 +1215,1100 @@
       <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>103</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>105</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>201</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>202</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>203</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>204</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>205</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>206</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>301</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="E17" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>302</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>303</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>304</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>305</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>306</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>401</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>402</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>403</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>501</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>502</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>503</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>504</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>505</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>601</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>602</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>603</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>604</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>605</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>701</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>702</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>703</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>704</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>705</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>706</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>801</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>802</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>803</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>804</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>805</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>806</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>9601</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="F48" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>9602</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>9603</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>9604</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>9605</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>9701</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="F53" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>9702</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>9703</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D55" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>9804</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="F56" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>9901</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>9902</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>9903</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:C24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C24">
     <sortCondition ref="A5"/>
   </sortState>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2AAB1E-C692-4ED5-9886-E543A0698E7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE89C3B-16FC-47FA-9188-755C582E5CCF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="153">
   <si>
     <t>ID</t>
   </si>
@@ -684,6 +684,14 @@
   </si>
   <si>
     <t>taijijianfa_zhangzhenren;taijiquan_zhangzhenren</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZangDaoRen</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>taijijianfa_zangdaoren;taijiquan_zangdaoren</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1107,8 +1115,8 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5:E59"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1472,14 +1480,14 @@
       <c r="C18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>50</v>
+      <c r="E18" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2308,7 +2316,7 @@
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110E0C61-6C20-49EE-BCA3-F5203F7D40C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5E2EF1-B2D4-4666-8EC1-DE04502B0EF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="158">
   <si>
     <t>ID</t>
   </si>
@@ -692,6 +692,24 @@
   </si>
   <si>
     <t>taijijianfa_zangdaoren;taijiquan_zangdaoren</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mojiao1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mojiao2</t>
+  </si>
+  <si>
+    <t>Mojiao3</t>
+  </si>
+  <si>
+    <t>modao;modaoyishan</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔刀;寂灭斩</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1115,8 +1133,8 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1900,14 +1918,14 @@
       <c r="C39" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>35</v>
+      <c r="D39" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1920,14 +1938,14 @@
       <c r="C40" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>35</v>
+      <c r="D40" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>40</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1940,14 +1958,14 @@
       <c r="C41" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>35</v>
+      <c r="D41" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>40</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">

--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5E2EF1-B2D4-4666-8EC1-DE04502B0EF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348EB2AE-CAB7-4030-A70B-402930A3798E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="708" yWindow="720" windowWidth="20772" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="160">
   <si>
     <t>ID</t>
   </si>
@@ -207,9 +207,6 @@
     <t>罗汉伏魔拳;千手如来掌</t>
   </si>
   <si>
-    <t>luohanfumoquan;qianshourulaizhang</t>
-  </si>
-  <si>
     <t>HuotousengPrefab</t>
   </si>
   <si>
@@ -285,28 +282,6 @@
     <t>青莲女神剑;白蟒鞭</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>q</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ingliannvshenjian;baimangbian</t>
-    </r>
-  </si>
-  <si>
     <t>Emei1</t>
   </si>
   <si>
@@ -329,28 +304,6 @@
   </si>
   <si>
     <t>华山剑法;御剑术</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uashanjianfa;yujianshu</t>
-    </r>
   </si>
   <si>
     <t>山不羊</t>
@@ -402,28 +355,6 @@
     <t>五毒神鞭;千蛛万毒手</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>udushenbian;qianzhuwandushou</t>
-    </r>
-  </si>
-  <si>
     <t>Wudu1</t>
   </si>
   <si>
@@ -710,6 +641,66 @@
   </si>
   <si>
     <t>魔刀;寂灭斩</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>qingnianshennvjian;baimangbian</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>huashanjian;yujianshu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_huashan</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ianfa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;qianzhuwandushou</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>luohanfumoquan;qianshouzhang</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wk_attack_1;wk_attack_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>倭刀一闪;哈撒给</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1133,8 +1124,8 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39:D41"/>
+      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1242,7 +1233,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>18</v>
@@ -1362,7 +1353,7 @@
         <v>31</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>32</v>
@@ -1382,10 +1373,10 @@
         <v>34</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1393,7 +1384,7 @@
         <v>203</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>30</v>
@@ -1402,10 +1393,10 @@
         <v>34</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1413,7 +1404,7 @@
         <v>204</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>30</v>
@@ -1421,11 +1412,11 @@
       <c r="D14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>35</v>
+      <c r="E14" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1433,7 +1424,7 @@
         <v>205</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>30</v>
@@ -1441,11 +1432,11 @@
       <c r="D15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>35</v>
+      <c r="E15" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1453,7 +1444,7 @@
         <v>206</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>30</v>
@@ -1461,11 +1452,11 @@
       <c r="D16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>35</v>
+      <c r="E16" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1473,19 +1464,19 @@
         <v>301</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1493,19 +1484,19 @@
         <v>302</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="E18" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1513,19 +1504,19 @@
         <v>303</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="E19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1533,19 +1524,19 @@
         <v>304</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="E20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1553,19 +1544,19 @@
         <v>305</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1573,19 +1564,19 @@
         <v>306</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1593,19 +1584,19 @@
         <v>401</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1613,19 +1604,19 @@
         <v>402</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>61</v>
+      <c r="E24" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1633,19 +1624,19 @@
         <v>403</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1653,19 +1644,19 @@
         <v>501</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1673,19 +1664,19 @@
         <v>502</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1693,19 +1684,19 @@
         <v>503</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1713,19 +1704,19 @@
         <v>504</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1733,19 +1724,19 @@
         <v>505</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1753,19 +1744,19 @@
         <v>601</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1773,19 +1764,19 @@
         <v>602</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1793,19 +1784,19 @@
         <v>603</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1813,19 +1804,19 @@
         <v>604</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1833,19 +1824,19 @@
         <v>605</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1853,19 +1844,19 @@
         <v>701</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>35</v>
+      <c r="E36" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1873,19 +1864,19 @@
         <v>702</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>35</v>
+      <c r="E37" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1893,19 +1884,19 @@
         <v>703</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>35</v>
+      <c r="E38" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1913,19 +1904,19 @@
         <v>704</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1933,19 +1924,19 @@
         <v>705</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1953,19 +1944,19 @@
         <v>706</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1973,19 +1964,19 @@
         <v>801</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>35</v>
+      <c r="E42" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1993,19 +1984,19 @@
         <v>802</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>35</v>
+      <c r="E43" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2013,19 +2004,19 @@
         <v>803</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>35</v>
+      <c r="E44" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2033,19 +2024,19 @@
         <v>804</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>35</v>
+      <c r="E45" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2053,19 +2044,19 @@
         <v>805</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>35</v>
+      <c r="E46" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2073,19 +2064,19 @@
         <v>806</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>35</v>
+      <c r="E47" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2093,19 +2084,19 @@
         <v>9601</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2113,19 +2104,19 @@
         <v>9602</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2133,19 +2124,19 @@
         <v>9603</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2153,19 +2144,19 @@
         <v>9604</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2173,19 +2164,19 @@
         <v>9605</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2193,19 +2184,19 @@
         <v>9701</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2213,19 +2204,19 @@
         <v>9702</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2233,19 +2224,19 @@
         <v>9703</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2253,19 +2244,19 @@
         <v>9804</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2273,19 +2264,19 @@
         <v>9901</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>35</v>
+        <v>136</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2293,19 +2284,19 @@
         <v>9902</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>35</v>
+        <v>136</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2313,19 +2304,19 @@
         <v>9903</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>35</v>
+        <v>136</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348EB2AE-CAB7-4030-A70B-402930A3798E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7E4BC5-1DCE-43C9-A6DA-D9867BEF9753}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="708" yWindow="720" windowWidth="20772" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ian.yin:</t>
@@ -44,6 +45,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -58,6 +60,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ian.yin:</t>
@@ -66,6 +69,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -80,6 +84,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ian.yin:</t>
@@ -88,6 +93,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -100,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="162">
   <si>
     <t>ID</t>
   </si>
@@ -247,9 +253,6 @@
   </si>
   <si>
     <t>脏道人</t>
-  </si>
-  <si>
-    <t>taijijianfa;taijizhang</t>
   </si>
   <si>
     <t>Wudang1</t>
@@ -335,6 +338,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -345,6 +349,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -492,6 +497,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -502,6 +508,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -541,6 +548,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -551,6 +559,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -594,23 +603,6 @@
   </si>
   <si>
     <t>laoyuechanfa;jiuyanggong</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>luohanfumoquan;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>yijinjing_saodiseng</t>
-    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -684,6 +676,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -701,6 +694,22 @@
   </si>
   <si>
     <t>倭刀一闪;哈撒给</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>捞月铲法;九阳功</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>taijijianfa;taijiquan</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚不坏身;易筋经</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jingangbuhuaishen;yijinjing_saodiseng</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -721,17 +730,20 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -745,6 +757,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1124,8 +1137,8 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1233,7 +1246,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>18</v>
@@ -1353,7 +1366,7 @@
         <v>31</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>32</v>
@@ -1370,10 +1383,10 @@
         <v>30</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>35</v>
@@ -1389,11 +1402,11 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>34</v>
+      <c r="D13" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>37</v>
@@ -1413,7 +1426,7 @@
         <v>34</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>39</v>
@@ -1433,7 +1446,7 @@
         <v>34</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>41</v>
@@ -1453,7 +1466,7 @@
         <v>34</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>43</v>
@@ -1473,7 +1486,7 @@
         <v>46</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>47</v>
@@ -1493,10 +1506,10 @@
         <v>46</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1504,7 +1517,7 @@
         <v>303</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>45</v>
@@ -1512,11 +1525,11 @@
       <c r="D19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1524,7 +1537,7 @@
         <v>304</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>45</v>
@@ -1532,11 +1545,11 @@
       <c r="D20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1544,7 +1557,7 @@
         <v>305</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>45</v>
@@ -1552,11 +1565,11 @@
       <c r="D21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>49</v>
+      <c r="E21" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1564,7 +1577,7 @@
         <v>306</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>45</v>
@@ -1572,11 +1585,11 @@
       <c r="D22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>49</v>
+      <c r="E22" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1584,19 +1597,19 @@
         <v>401</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1604,19 +1617,19 @@
         <v>402</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1624,19 +1637,19 @@
         <v>403</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1644,16 +1657,16 @@
         <v>501</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>39</v>
@@ -1664,16 +1677,16 @@
         <v>502</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>39</v>
@@ -1684,19 +1697,19 @@
         <v>503</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1704,19 +1717,19 @@
         <v>504</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1724,19 +1737,19 @@
         <v>505</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1744,19 +1757,19 @@
         <v>601</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1764,19 +1777,19 @@
         <v>602</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1784,19 +1797,19 @@
         <v>603</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1804,19 +1817,19 @@
         <v>604</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1824,19 +1837,19 @@
         <v>605</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1844,16 +1857,16 @@
         <v>701</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>39</v>
@@ -1864,16 +1877,16 @@
         <v>702</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>39</v>
@@ -1884,16 +1897,16 @@
         <v>703</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>39</v>
@@ -1904,19 +1917,19 @@
         <v>704</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1924,19 +1937,19 @@
         <v>705</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1944,19 +1957,19 @@
         <v>706</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1964,16 +1977,16 @@
         <v>801</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>39</v>
@@ -1984,16 +1997,16 @@
         <v>802</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>39</v>
@@ -2004,16 +2017,16 @@
         <v>803</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>39</v>
@@ -2024,16 +2037,16 @@
         <v>804</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>39</v>
@@ -2044,16 +2057,16 @@
         <v>805</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>39</v>
@@ -2064,16 +2077,16 @@
         <v>806</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>39</v>
@@ -2084,19 +2097,19 @@
         <v>9601</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="E48" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="F48" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2104,19 +2117,19 @@
         <v>9602</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" s="5" t="s">
+      <c r="E49" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="F49" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2124,19 +2137,19 @@
         <v>9603</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D50" s="5" t="s">
+      <c r="E50" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="F50" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2144,19 +2157,19 @@
         <v>9604</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D51" s="5" t="s">
+      <c r="E51" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="F51" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2164,19 +2177,19 @@
         <v>9605</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D52" s="5" t="s">
+      <c r="E52" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="F52" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2184,19 +2197,19 @@
         <v>9701</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="E53" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2204,19 +2217,19 @@
         <v>9702</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D54" s="3" t="s">
+      <c r="E54" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2224,19 +2237,19 @@
         <v>9703</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D55" s="3" t="s">
+      <c r="E55" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2244,19 +2257,19 @@
         <v>9804</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="D56" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="E56" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="F56" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2264,19 +2277,19 @@
         <v>9901</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2284,19 +2297,19 @@
         <v>9902</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2304,19 +2317,19 @@
         <v>9903</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7E4BC5-1DCE-43C9-A6DA-D9867BEF9753}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC25695A-123B-4D47-ADA0-92141003777F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="166">
   <si>
     <t>ID</t>
   </si>
@@ -710,6 +710,22 @@
   </si>
   <si>
     <t>jingangbuhuaishen;yijinjing_saodiseng</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gaibang1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suhuazi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒火连击;醉葫击</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiuhuolianji;zuihuji</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1137,8 +1153,8 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1269,7 +1285,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1282,14 +1298,14 @@
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>21</v>
+      <c r="D7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">

--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC25695A-123B-4D47-ADA0-92141003777F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5316FA87-E294-44AC-9533-B1054AF3EEE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,9 +171,6 @@
     <t>打狗棒法;钓鱼棍法</t>
   </si>
   <si>
-    <t>dagoubangfa;diaoyugunfa</t>
-  </si>
-  <si>
     <t>Gaibang1</t>
   </si>
   <si>
@@ -726,6 +723,10 @@
   </si>
   <si>
     <t>jiuhuolianji;zuihuji</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dagoubangfa;diaoyugunfa</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -825,7 +826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -834,9 +835,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1153,8 +1151,8 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D48" sqref="D48:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1261,8 +1259,8 @@
       <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>141</v>
+      <c r="E5" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>18</v>
@@ -1278,14 +1276,14 @@
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>21</v>
+      <c r="E6" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1293,19 +1291,19 @@
         <v>103</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1313,19 +1311,19 @@
         <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1333,19 +1331,19 @@
         <v>105</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>21</v>
+      <c r="E9" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1353,19 +1351,19 @@
         <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>21</v>
+      <c r="E10" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1373,19 +1371,19 @@
         <v>201</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1393,19 +1391,19 @@
         <v>202</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>143</v>
+        <v>29</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1413,19 +1411,19 @@
         <v>203</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1433,19 +1431,19 @@
         <v>204</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1453,19 +1451,19 @@
         <v>205</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1473,19 +1471,19 @@
         <v>206</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1493,19 +1491,19 @@
         <v>301</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1513,19 +1511,19 @@
         <v>302</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>146</v>
+      <c r="E18" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1533,19 +1531,19 @@
         <v>303</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>159</v>
+      <c r="E19" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1553,19 +1551,19 @@
         <v>304</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>159</v>
+      <c r="E20" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1573,19 +1571,19 @@
         <v>305</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1593,19 +1591,19 @@
         <v>306</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1613,19 +1611,19 @@
         <v>401</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1633,19 +1631,19 @@
         <v>402</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1653,19 +1651,19 @@
         <v>403</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1673,19 +1671,19 @@
         <v>501</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="D26" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>155</v>
+        <v>33</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1693,19 +1691,19 @@
         <v>502</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>155</v>
+        <v>33</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1713,19 +1711,19 @@
         <v>503</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1733,19 +1731,19 @@
         <v>504</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1753,19 +1751,19 @@
         <v>505</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1773,19 +1771,19 @@
         <v>601</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1793,19 +1791,19 @@
         <v>602</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1813,19 +1811,19 @@
         <v>603</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1833,19 +1831,19 @@
         <v>604</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1853,19 +1851,19 @@
         <v>605</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1873,19 +1871,19 @@
         <v>701</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>155</v>
+      <c r="D36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1893,19 +1891,19 @@
         <v>702</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>155</v>
+        <v>84</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1913,19 +1911,19 @@
         <v>703</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>155</v>
+        <v>84</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1933,19 +1931,19 @@
         <v>704</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E39" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>150</v>
       </c>
+      <c r="E39" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="F39" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1953,19 +1951,19 @@
         <v>705</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E40" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>150</v>
       </c>
+      <c r="E40" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="F40" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1973,19 +1971,19 @@
         <v>706</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E41" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>150</v>
       </c>
+      <c r="E41" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="F41" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1993,19 +1991,19 @@
         <v>801</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>155</v>
+      <c r="D42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2013,19 +2011,19 @@
         <v>802</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>155</v>
+        <v>91</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2033,19 +2031,19 @@
         <v>803</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>155</v>
+        <v>91</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2053,19 +2051,19 @@
         <v>804</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>155</v>
+        <v>91</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2073,19 +2071,19 @@
         <v>805</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>155</v>
+        <v>91</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2093,19 +2091,19 @@
         <v>806</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>155</v>
+        <v>91</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2113,19 +2111,19 @@
         <v>9601</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="E48" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="F48" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2133,19 +2131,19 @@
         <v>9602</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" s="5" t="s">
+      <c r="E49" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="F49" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2153,19 +2151,19 @@
         <v>9603</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D50" s="5" t="s">
+      <c r="E50" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="F50" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2173,19 +2171,19 @@
         <v>9604</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D51" s="5" t="s">
+      <c r="E51" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="F51" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2193,19 +2191,19 @@
         <v>9605</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D52" s="5" t="s">
+      <c r="E52" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="F52" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2213,19 +2211,19 @@
         <v>9701</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="E53" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2233,19 +2231,19 @@
         <v>9702</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D54" s="3" t="s">
+      <c r="E54" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2253,19 +2251,19 @@
         <v>9703</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D55" s="3" t="s">
+      <c r="E55" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2273,19 +2271,19 @@
         <v>9804</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="E56" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="F56" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2293,19 +2291,19 @@
         <v>9901</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2313,19 +2311,19 @@
         <v>9902</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2333,19 +2331,19 @@
         <v>9903</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5316FA87-E294-44AC-9533-B1054AF3EEE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30747102-534A-4FF1-B0D2-C403A942B763}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$F$59</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="168">
   <si>
     <t>ID</t>
   </si>
@@ -280,9 +280,6 @@
   </si>
   <si>
     <t>青莲女神剑;白蟒鞭</t>
-  </si>
-  <si>
-    <t>Emei1</t>
   </si>
   <si>
     <t>独臂女冠</t>
@@ -727,6 +724,17 @@
   </si>
   <si>
     <t>dagoubangfa;diaoyugunfa</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Juejueshitai</t>
+  </si>
+  <si>
+    <t>如意剑法;灭绝剑法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pugong;skill</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1152,7 +1160,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D48" sqref="D48:E52"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1260,7 +1268,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>18</v>
@@ -1280,10 +1288,10 @@
         <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1297,13 +1305,13 @@
         <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1320,7 +1328,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>21</v>
@@ -1340,7 +1348,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>25</v>
@@ -1360,7 +1368,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>27</v>
@@ -1380,7 +1388,7 @@
         <v>30</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>31</v>
@@ -1397,10 +1405,10 @@
         <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>34</v>
@@ -1417,10 +1425,10 @@
         <v>29</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>36</v>
@@ -1440,7 +1448,7 @@
         <v>33</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>38</v>
@@ -1460,7 +1468,7 @@
         <v>33</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>40</v>
@@ -1480,7 +1488,7 @@
         <v>33</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>42</v>
@@ -1500,7 +1508,7 @@
         <v>45</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>46</v>
@@ -1520,10 +1528,10 @@
         <v>45</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1540,7 +1548,7 @@
         <v>45</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>48</v>
@@ -1560,7 +1568,7 @@
         <v>45</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>48</v>
@@ -1580,7 +1588,7 @@
         <v>45</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>52</v>
@@ -1600,7 +1608,7 @@
         <v>45</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>54</v>
@@ -1616,14 +1624,14 @@
       <c r="C23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>151</v>
+      <c r="D23" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>58</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1631,7 +1639,7 @@
         <v>402</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>56</v>
@@ -1640,10 +1648,10 @@
         <v>57</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1651,7 +1659,7 @@
         <v>403</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>56</v>
@@ -1660,10 +1668,10 @@
         <v>57</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1671,16 +1679,16 @@
         <v>501</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>38</v>
@@ -1691,16 +1699,16 @@
         <v>502</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>38</v>
@@ -1711,19 +1719,19 @@
         <v>503</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1731,19 +1739,19 @@
         <v>504</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1751,19 +1759,19 @@
         <v>505</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1771,19 +1779,19 @@
         <v>601</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1791,19 +1799,19 @@
         <v>602</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1811,19 +1819,19 @@
         <v>603</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1831,19 +1839,19 @@
         <v>604</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1851,19 +1859,19 @@
         <v>605</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1871,16 +1879,16 @@
         <v>701</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>38</v>
@@ -1891,16 +1899,16 @@
         <v>702</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>38</v>
@@ -1911,16 +1919,16 @@
         <v>703</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>38</v>
@@ -1931,19 +1939,19 @@
         <v>704</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1951,19 +1959,19 @@
         <v>705</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1971,19 +1979,19 @@
         <v>706</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1991,16 +1999,16 @@
         <v>801</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>38</v>
@@ -2011,16 +2019,16 @@
         <v>802</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>38</v>
@@ -2031,16 +2039,16 @@
         <v>803</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>38</v>
@@ -2051,16 +2059,16 @@
         <v>804</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>38</v>
@@ -2071,16 +2079,16 @@
         <v>805</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>38</v>
@@ -2091,16 +2099,16 @@
         <v>806</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>38</v>
@@ -2111,19 +2119,19 @@
         <v>9601</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2131,19 +2139,19 @@
         <v>9602</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2151,19 +2159,19 @@
         <v>9603</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2171,19 +2179,19 @@
         <v>9604</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2191,19 +2199,19 @@
         <v>9605</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2211,19 +2219,19 @@
         <v>9701</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="E53" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2231,19 +2239,19 @@
         <v>9702</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D54" s="3" t="s">
+      <c r="E54" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2251,19 +2259,19 @@
         <v>9703</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D55" s="3" t="s">
+      <c r="E55" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2271,19 +2279,19 @@
         <v>9804</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="E56" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2291,19 +2299,19 @@
         <v>9901</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2311,19 +2319,19 @@
         <v>9902</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2331,19 +2339,19 @@
         <v>9903</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30747102-534A-4FF1-B0D2-C403A942B763}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C33761-EC0F-43DD-8525-EE04CDC8DBCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="191">
   <si>
     <t>ID</t>
   </si>
@@ -283,9 +283,6 @@
   </si>
   <si>
     <t>独臂女冠</t>
-  </si>
-  <si>
-    <t>Emei2</t>
   </si>
   <si>
     <t>峨眉弟子清虚|峨眉弟子清照|峨眉弟子清迦|峨眉弟子清慧|峨眉弟子清净</t>
@@ -735,6 +732,142 @@
   </si>
   <si>
     <t>pugong;skill</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qiubujun</t>
+  </si>
+  <si>
+    <t>Shanbuyang</t>
+  </si>
+  <si>
+    <t>御剑术;万剑归宗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫霞掌;紫气东来</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RiLunFaWang</t>
+  </si>
+  <si>
+    <t>YueLunFaWang_Prefab</t>
+  </si>
+  <si>
+    <t>XiaoyaoziPrefab</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ubinvguan</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yujianshu_qiubujun;wanjianguizong</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>zixiazhang;ziqidonglai</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗汉伏魔拳;千手如来掌</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金乌刀;旭日拳</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jinwudao;huoquan</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jianwu;huanyingjianwu</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂蟾刀;月华弄影</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shenguangpuzhao;shenxiaoleifa</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>神光普照;神霄雷法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>qingliannvshenjian</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_dubi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xiuliqiankun</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>青莲女神剑;袖里乾坤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xiaoyao1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xiaoyao2</t>
+  </si>
+  <si>
+    <t>Xiaoyao3</t>
+  </si>
+  <si>
+    <t>yeluoxinghejian;bodongquan</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜落星河剑;御寇拳</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -834,7 +967,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -852,6 +985,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1159,8 +1295,8 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1268,7 +1404,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>18</v>
@@ -1288,10 +1424,10 @@
         <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1305,13 +1441,13 @@
         <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>163</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1328,7 +1464,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>21</v>
@@ -1348,7 +1484,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>25</v>
@@ -1368,7 +1504,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>27</v>
@@ -1388,7 +1524,7 @@
         <v>30</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>31</v>
@@ -1405,10 +1541,10 @@
         <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>34</v>
@@ -1425,10 +1561,10 @@
         <v>29</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>36</v>
@@ -1448,7 +1584,7 @@
         <v>33</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>38</v>
@@ -1468,7 +1604,7 @@
         <v>33</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>40</v>
@@ -1488,7 +1624,7 @@
         <v>33</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>42</v>
@@ -1508,7 +1644,7 @@
         <v>45</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>46</v>
@@ -1528,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1548,7 +1684,7 @@
         <v>45</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>48</v>
@@ -1568,7 +1704,7 @@
         <v>45</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>48</v>
@@ -1588,7 +1724,7 @@
         <v>45</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>52</v>
@@ -1608,7 +1744,7 @@
         <v>45</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>54</v>
@@ -1625,13 +1761,13 @@
         <v>56</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>167</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1644,14 +1780,14 @@
       <c r="C24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>59</v>
+      <c r="D24" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1659,7 +1795,7 @@
         <v>403</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>56</v>
@@ -1668,10 +1804,10 @@
         <v>57</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1679,19 +1815,19 @@
         <v>501</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="D26" s="3" t="s">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>38</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1699,19 +1835,19 @@
         <v>502</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>33</v>
+        <v>62</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1719,19 +1855,19 @@
         <v>503</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1739,19 +1875,19 @@
         <v>504</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1759,19 +1895,19 @@
         <v>505</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1779,19 +1915,19 @@
         <v>601</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1799,19 +1935,19 @@
         <v>602</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1819,19 +1955,19 @@
         <v>603</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1839,19 +1975,19 @@
         <v>604</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1859,19 +1995,19 @@
         <v>605</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1879,16 +2015,16 @@
         <v>701</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>33</v>
+      <c r="D36" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>38</v>
@@ -1899,19 +2035,19 @@
         <v>702</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>153</v>
+        <v>82</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1919,19 +2055,19 @@
         <v>703</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>153</v>
+        <v>82</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1939,19 +2075,19 @@
         <v>704</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1959,19 +2095,19 @@
         <v>705</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1979,19 +2115,19 @@
         <v>706</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1999,19 +2135,19 @@
         <v>801</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>153</v>
+      <c r="D42" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>38</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2019,16 +2155,16 @@
         <v>802</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>33</v>
+        <v>89</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>38</v>
@@ -2039,16 +2175,16 @@
         <v>803</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>38</v>
@@ -2059,19 +2195,19 @@
         <v>804</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>38</v>
+        <v>89</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2079,19 +2215,19 @@
         <v>805</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>38</v>
+        <v>89</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2099,19 +2235,19 @@
         <v>806</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>38</v>
+        <v>89</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2119,19 +2255,19 @@
         <v>9601</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2139,19 +2275,19 @@
         <v>9602</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2159,19 +2295,19 @@
         <v>9603</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2179,19 +2315,19 @@
         <v>9604</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2199,19 +2335,19 @@
         <v>9605</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2219,19 +2355,19 @@
         <v>9701</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="E53" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2239,19 +2375,19 @@
         <v>9702</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D54" s="3" t="s">
+      <c r="E54" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2259,19 +2395,19 @@
         <v>9703</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D55" s="3" t="s">
+      <c r="E55" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2279,19 +2415,19 @@
         <v>9804</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="E56" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2299,19 +2435,19 @@
         <v>9901</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2319,19 +2455,19 @@
         <v>9902</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2339,19 +2475,19 @@
         <v>9903</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C33761-EC0F-43DD-8525-EE04CDC8DBCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7746A6-F1B5-4AFC-9740-283741EF5F98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$F$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$F$61</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="181029" concurrentCalc="0"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="193">
   <si>
     <t>ID</t>
   </si>
@@ -869,6 +869,12 @@
   <si>
     <t>夜落星河剑;御寇拳</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emei1</t>
+  </si>
+  <si>
+    <t>Emei2</t>
   </si>
 </sst>
 </file>
@@ -1292,11 +1298,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1807,95 +1813,95 @@
         <v>149</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>501</v>
+        <v>404</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>175</v>
+        <v>57</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>502</v>
+        <v>405</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>176</v>
+        <v>56</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>168</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>63</v>
+      <c r="D29" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>62</v>
@@ -1907,60 +1913,60 @@
         <v>150</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>601</v>
+        <v>504</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>151</v>
+        <v>67</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>602</v>
+        <v>505</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>151</v>
+        <v>69</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E33" s="6" t="s">
@@ -1972,30 +1978,30 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>151</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>72</v>
@@ -2007,115 +2013,115 @@
         <v>151</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>701</v>
+        <v>604</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>177</v>
+        <v>72</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>702</v>
+        <v>605</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>179</v>
+        <v>72</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>180</v>
+      <c r="D38" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>172</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>147</v>
+      <c r="D39" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>147</v>
+      <c r="D40" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>82</v>
@@ -2127,115 +2133,115 @@
         <v>147</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>801</v>
+        <v>705</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>182</v>
+        <v>82</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>802</v>
+        <v>706</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>152</v>
+      <c r="D44" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>38</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>186</v>
+      <c r="D45" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>187</v>
+      <c r="D46" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>89</v>
@@ -2247,235 +2253,235 @@
         <v>189</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>9601</v>
+        <v>805</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>9602</v>
+        <v>806</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>9603</v>
+        <v>9601</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>9604</v>
+        <v>9602</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>9605</v>
+        <v>9603</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>9701</v>
+        <v>9604</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>118</v>
+        <v>96</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>9702</v>
+        <v>9605</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>122</v>
+        <v>96</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>9703</v>
+        <v>9701</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>117</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>9804</v>
+        <v>9702</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>9901</v>
+        <v>9703</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>9902</v>
+        <v>9804</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>9903</v>
+        <v>9901</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>132</v>
@@ -2487,6 +2493,46 @@
         <v>153</v>
       </c>
       <c r="F59" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>9902</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>9903</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>137</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7746A6-F1B5-4AFC-9740-283741EF5F98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0332DD-3352-42DF-A714-B908A9C9B8C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6432" yWindow="444" windowWidth="20664" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$F$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$F$101</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="181029" concurrentCalc="0"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="234">
   <si>
     <t>ID</t>
   </si>
@@ -875,6 +875,163 @@
   </si>
   <si>
     <t>Emei2</t>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iemo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>血刀老祖</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>血刀喽啰1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>血刀喽啰2</t>
+  </si>
+  <si>
+    <t>血刀喽啰3</t>
+  </si>
+  <si>
+    <t>东方教主</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>葵花喽啰1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>葵花喽啰2</t>
+  </si>
+  <si>
+    <t>葵花喽啰3</t>
+  </si>
+  <si>
+    <t>丁冬夏</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>星宿喽啰1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>星宿喽啰2</t>
+  </si>
+  <si>
+    <t>星宿喽啰3</t>
+  </si>
+  <si>
+    <t>龙象上师</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙象喽啰1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙象喽啰2</t>
+  </si>
+  <si>
+    <t>龙象喽啰3</t>
+  </si>
+  <si>
+    <t>白骨夫人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨喽啰1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨喽啰2</t>
+  </si>
+  <si>
+    <t>白骨喽啰3</t>
+  </si>
+  <si>
+    <t>僵尸将军</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸喽啰1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸喽啰2</t>
+  </si>
+  <si>
+    <t>僵尸喽啰3</t>
+  </si>
+  <si>
+    <t>马贼大当家</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>马贼喽啰1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>马贼喽啰2</t>
+  </si>
+  <si>
+    <t>马贼喽啰3</t>
+  </si>
+  <si>
+    <t>猿公</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>猿猴喽啰1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>猿猴喽啰2</t>
+  </si>
+  <si>
+    <t>猿猴喽啰3</t>
+  </si>
+  <si>
+    <t>南蛮王</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>南蛮喽啰1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>南蛮喽啰2</t>
+  </si>
+  <si>
+    <t>南蛮喽啰3</t>
+  </si>
+  <si>
+    <t>浪人首领</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>倭寇喽啰1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>倭寇喽啰2</t>
+  </si>
+  <si>
+    <t>倭寇喽啰3</t>
   </si>
 </sst>
 </file>
@@ -926,7 +1083,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -942,6 +1099,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,7 +1136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -994,6 +1157,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1298,11 +1464,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <pane ySplit="4" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2298,241 +2464,684 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>9601</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>99</v>
-      </c>
+        <v>9501</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>9602</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>103</v>
+        <v>9502</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>9603</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>107</v>
+        <v>9503</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>9604</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>111</v>
+        <v>9504</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>9605</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>115</v>
+        <v>9505</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>9701</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>120</v>
+        <v>9506</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>9702</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>124</v>
+        <v>9507</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>9703</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>125</v>
+        <v>9508</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>9804</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>130</v>
+        <v>9509</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>9901</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>133</v>
+        <v>9510</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>9902</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>135</v>
+        <v>9511</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
+        <v>9512</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>9513</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>9514</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>9515</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>9516</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>9517</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>9518</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>9519</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>9520</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>9521</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>9522</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>9523</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>9524</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>9525</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>9526</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>9527</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>9528</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>9529</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>9530</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>9531</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>9532</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>9533</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>9534</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>9535</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>9536</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>9537</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>9538</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>9539</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>9540</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>9601</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>9602</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>9603</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>9604</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>9605</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>9701</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>9702</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>9703</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>9804</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>9901</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>9902</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
         <v>9903</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B101" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C101" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D101" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E101" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>137</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0332DD-3352-42DF-A714-B908A9C9B8C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F0E23D-608E-4FA9-AC36-BE99B9EE6AED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6432" yWindow="444" windowWidth="20664" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="237">
   <si>
     <t>ID</t>
   </si>
@@ -1032,6 +1032,18 @@
   </si>
   <si>
     <t>倭寇喽啰3</t>
+  </si>
+  <si>
+    <t>dizangyin;yanluotie</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地藏引;阎罗帖</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wudushenjun</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1466,9 +1478,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2132,14 +2144,14 @@
       <c r="C33" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>74</v>
+      <c r="D33" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">

--- a/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/EnemyConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F0E23D-608E-4FA9-AC36-BE99B9EE6AED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA8A41E-8681-465F-B2B5-3CCECB3331EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -727,14 +727,6 @@
     <t>Juejueshitai</t>
   </si>
   <si>
-    <t>如意剑法;灭绝剑法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pugong;skill</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Qiubujun</t>
   </si>
   <si>
@@ -1043,6 +1035,14 @@
   </si>
   <si>
     <t>Wudushenjun</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>如意剑法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pugong</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1478,9 +1478,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1945,10 +1945,10 @@
         <v>56</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>166</v>
+        <v>236</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>164</v>
@@ -1965,13 +1965,13 @@
         <v>56</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1991,7 +1991,7 @@
         <v>149</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2011,7 +2011,7 @@
         <v>149</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2045,13 +2045,13 @@
         <v>62</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2065,13 +2065,13 @@
         <v>62</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2145,13 +2145,13 @@
         <v>72</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2245,7 +2245,7 @@
         <v>82</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>152</v>
@@ -2265,13 +2265,13 @@
         <v>82</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2285,13 +2285,13 @@
         <v>82</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2365,13 +2365,13 @@
         <v>89</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2385,7 +2385,7 @@
         <v>89</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>152</v>
@@ -2425,13 +2425,13 @@
         <v>89</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2445,13 +2445,13 @@
         <v>89</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2465,13 +2465,13 @@
         <v>89</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2479,10 +2479,10 @@
         <v>9501</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
@@ -2493,10 +2493,10 @@
         <v>9502</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2504,10 +2504,10 @@
         <v>9503</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2515,10 +2515,10 @@
         <v>9504</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2526,10 +2526,10 @@
         <v>9505</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2537,10 +2537,10 @@
         <v>9506</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2548,10 +2548,10 @@
         <v>9507</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2559,10 +2559,10 @@
         <v>9508</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2570,10 +2570,10 @@
         <v>9509</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2581,10 +2581,10 @@
         <v>9510</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2592,10 +2592,10 @@
         <v>9511</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2603,10 +2603,10 @@
         <v>9512</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2614,10 +2614,10 @@
         <v>9513</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2625,10 +2625,10 @@
         <v>9514</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2636,10 +2636,10 @@
         <v>9515</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2647,10 +2647,10 @@
         <v>9516</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -2658,10 +2658,10 @@
         <v>9517</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -2669,10 +2669,10 @@
         <v>9518</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -2680,10 +2680,10 @@
         <v>9519</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2691,10 +2691,10 @@
         <v>9520</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2702,10 +2702,10 @@
         <v>9521</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2713,10 +2713,10 @@
         <v>9522</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2724,10 +2724,10 @@
         <v>9523</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -2735,10 +2735,10 @@
         <v>9524</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2746,10 +2746,10 @@
         <v>9525</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2757,10 +2757,10 @@
         <v>9526</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2768,10 +2768,10 @@
         <v>9527</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -2779,10 +2779,10 @@
         <v>9528</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -2790,10 +2790,10 @@
         <v>9529</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -2801,10 +2801,10 @@
         <v>9530</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -2812,10 +2812,10 @@
         <v>9531</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2823,10 +2823,10 @@
         <v>9532</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2834,10 +2834,10 @@
         <v>9533</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2845,10 +2845,10 @@
         <v>9534</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2856,10 +2856,10 @@
         <v>9535</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2867,10 +2867,10 @@
         <v>9536</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2878,10 +2878,10 @@
         <v>9537</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2889,10 +2889,10 @@
         <v>9538</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2900,10 +2900,10 @@
         <v>9539</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2911,10 +2911,10 @@
         <v>9540</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
